--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVWMigration\OVWMigration\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
   <si>
     <t>URL</t>
   </si>
@@ -295,9 +300,6 @@
   </si>
   <si>
     <t>Total locales to be tested</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Status update as of today</t>
@@ -499,9 +501,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,9 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -543,6 +539,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,6 +555,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -601,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,7 +853,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,58 +863,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>20</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>15</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
+      <c r="E4" s="16">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -937,215 +942,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="11" customWidth="1"/>
     <col min="5" max="7" width="17.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="10" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>97</v>
+      <c r="J1" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="14">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="15">
-        <v>9</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="15">
-        <v>9</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="15">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="15">
-        <v>9</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>48</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="19">
+      <c r="E7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="17">
         <v>42341</v>
       </c>
       <c r="L7" s="2"/>
@@ -1154,62 +1159,62 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>48</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="19">
+      <c r="E8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="17">
         <v>42341</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>48</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="19">
+      <c r="E9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17">
         <v>42341</v>
       </c>
       <c r="L9" s="4"/>
@@ -1218,370 +1223,370 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>48</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19">
+      <c r="E10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="17">
         <v>42341</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>48</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="19">
+      <c r="E11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="17">
         <v>42341</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="14">
+        <v>48</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="15" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="14">
         <v>48</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="19">
+      <c r="E13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17">
         <v>42341</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="15" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="14">
         <v>48</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19">
+      <c r="E14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="17">
         <v>42341</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="14">
         <v>48</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="19">
+      <c r="E15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="17">
         <v>42341</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="15" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="14">
         <v>48</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="19">
+      <c r="E16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="17">
         <v>42341</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19">
+      <c r="C17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="17">
         <v>42341</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="15" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="14">
         <v>9</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="19">
+      <c r="E18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="17">
         <v>42341</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="15" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="14">
         <v>9</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="19">
+      <c r="E19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="17">
         <v>42341</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="15" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="14">
         <v>9</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19">
+      <c r="E20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17">
         <v>42341</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="15" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>42341</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="14">
         <v>9</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="19">
-        <v>42341</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>42341</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="15">
-        <v>9</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="19">
+      <c r="E21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="17">
         <v>42341</v>
       </c>
     </row>
@@ -1623,14 +1628,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1638,7 +1643,7 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1646,7 +1651,7 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1654,7 +1659,7 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1662,7 +1667,7 @@
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1670,7 +1675,7 @@
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1678,7 +1683,7 @@
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1686,7 +1691,7 @@
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1694,7 +1699,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1702,7 +1707,7 @@
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1710,7 +1715,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1718,7 +1723,7 @@
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1726,7 +1731,7 @@
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1734,7 +1739,7 @@
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1742,7 +1747,7 @@
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1750,7 +1755,7 @@
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1758,7 +1763,7 @@
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1766,7 +1771,7 @@
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1774,7 +1779,7 @@
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1782,7 +1787,7 @@
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1790,7 +1795,7 @@
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1798,7 +1803,7 @@
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1806,7 +1811,7 @@
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1814,7 +1819,7 @@
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1822,7 +1827,7 @@
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1830,7 +1835,7 @@
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1838,7 +1843,7 @@
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1846,7 +1851,7 @@
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1854,7 +1859,7 @@
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1862,7 +1867,7 @@
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1870,7 +1875,7 @@
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1878,7 +1883,7 @@
       <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1886,7 +1891,7 @@
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1894,7 +1899,7 @@
       <c r="A34" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1902,115 +1907,115 @@
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>91</v>
@@ -1476,7 +1476,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>91</v>
@@ -1507,7 +1507,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>91</v>
@@ -1538,7 +1538,7 @@
         <v>87</v>
       </c>
       <c r="D20" s="14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>91</v>
@@ -1571,7 +1571,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>91</v>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVWMigration\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="Details" sheetId="1" r:id="rId2"/>
-    <sheet name="Pending URLs" sheetId="5" r:id="rId3"/>
+    <sheet name="Pending URLs" sheetId="5" r:id="rId2"/>
+    <sheet name="Details" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
   <si>
     <t>URL</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t xml:space="preserve">The above number refer to the activities which are completed. Please go to next tab to check on the activities in progress. </t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Product-Listing</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -545,6 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,7 +860,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,16 +900,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="16">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C4" s="16">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D4" s="16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,11 +947,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1"/>
+    <hyperlink ref="A24" r:id="rId2"/>
+    <hyperlink ref="A28" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A31" r:id="rId5"/>
+    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
+    <hyperlink ref="A13" r:id="rId8"/>
+    <hyperlink ref="A27" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId10"/>
+    <hyperlink ref="A34" r:id="rId11"/>
+    <hyperlink ref="A36" r:id="rId12"/>
+    <hyperlink ref="A22" r:id="rId13"/>
+    <hyperlink ref="A19" r:id="rId14"/>
+    <hyperlink ref="A7" r:id="rId15"/>
+    <hyperlink ref="A37" r:id="rId16"/>
+    <hyperlink ref="A11" r:id="rId17"/>
+    <hyperlink ref="A21" r:id="rId18"/>
+    <hyperlink ref="A18" r:id="rId19"/>
+    <hyperlink ref="A29" r:id="rId20"/>
+    <hyperlink ref="A6" r:id="rId21"/>
+    <hyperlink ref="A35" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A32" r:id="rId24"/>
+    <hyperlink ref="A20" r:id="rId25"/>
+    <hyperlink ref="A17" r:id="rId26"/>
+    <hyperlink ref="A33" r:id="rId27"/>
+    <hyperlink ref="A8" r:id="rId28"/>
+    <hyperlink ref="A3" r:id="rId29"/>
+    <hyperlink ref="A2" r:id="rId30"/>
+    <hyperlink ref="A16" r:id="rId31"/>
+    <hyperlink ref="A23" r:id="rId32"/>
+    <hyperlink ref="A4" r:id="rId33"/>
+    <hyperlink ref="A38" r:id="rId34"/>
+    <hyperlink ref="A15" r:id="rId35"/>
+    <hyperlink ref="A12" r:id="rId36"/>
+    <hyperlink ref="A26" r:id="rId37"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1588,6 +1947,446 @@
       <c r="I21" s="22"/>
       <c r="J21" s="17">
         <v>42341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="14">
+        <v>48</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="14">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="14">
+        <v>48</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="14">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="14">
+        <v>48</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="14">
+        <v>48</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="14">
+        <v>48</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="14">
+        <v>48</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="14">
+        <v>48</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="14">
+        <v>48</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="14">
+        <v>48</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="14">
+        <v>48</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="14">
+        <v>48</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="14">
+        <v>48</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="14">
+        <v>48</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="17">
+        <v>42349</v>
       </c>
     </row>
   </sheetData>
@@ -1611,466 +2410,22 @@
     <hyperlink ref="B4" r:id="rId17"/>
     <hyperlink ref="B3" r:id="rId18"/>
     <hyperlink ref="B6" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="88.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="14"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="14"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1"/>
-    <hyperlink ref="A29" r:id="rId2"/>
-    <hyperlink ref="A44" r:id="rId3"/>
-    <hyperlink ref="A19" r:id="rId4"/>
-    <hyperlink ref="A33" r:id="rId5"/>
-    <hyperlink ref="A43" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A46" r:id="rId8"/>
-    <hyperlink ref="A37" r:id="rId9"/>
-    <hyperlink ref="A36" r:id="rId10"/>
-    <hyperlink ref="A38" r:id="rId11"/>
-    <hyperlink ref="A39" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A35" r:id="rId14"/>
-    <hyperlink ref="A13" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A32" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A42" r:id="rId19"/>
-    <hyperlink ref="A47" r:id="rId20"/>
-    <hyperlink ref="A27" r:id="rId21"/>
-    <hyperlink ref="A21" r:id="rId22"/>
-    <hyperlink ref="A7" r:id="rId23"/>
-    <hyperlink ref="A48" r:id="rId24"/>
-    <hyperlink ref="A11" r:id="rId25"/>
-    <hyperlink ref="A26" r:id="rId26"/>
-    <hyperlink ref="A20" r:id="rId27"/>
-    <hyperlink ref="A34" r:id="rId28"/>
-    <hyperlink ref="A6" r:id="rId29"/>
-    <hyperlink ref="A45" r:id="rId30"/>
-    <hyperlink ref="A10" r:id="rId31"/>
-    <hyperlink ref="A40" r:id="rId32"/>
-    <hyperlink ref="A25" r:id="rId33"/>
-    <hyperlink ref="A17" r:id="rId34"/>
-    <hyperlink ref="A41" r:id="rId35"/>
-    <hyperlink ref="A8" r:id="rId36"/>
-    <hyperlink ref="A23" r:id="rId37"/>
-    <hyperlink ref="A3" r:id="rId38"/>
-    <hyperlink ref="A50" r:id="rId39"/>
-    <hyperlink ref="A22" r:id="rId40"/>
-    <hyperlink ref="A2" r:id="rId41"/>
-    <hyperlink ref="A49" r:id="rId42"/>
-    <hyperlink ref="A24" r:id="rId43"/>
-    <hyperlink ref="A51" r:id="rId44"/>
-    <hyperlink ref="A16" r:id="rId45"/>
-    <hyperlink ref="A28" r:id="rId46"/>
-    <hyperlink ref="A4" r:id="rId47"/>
-    <hyperlink ref="A52" r:id="rId48"/>
-    <hyperlink ref="A15" r:id="rId49"/>
-    <hyperlink ref="A12" r:id="rId50"/>
-    <hyperlink ref="A31" r:id="rId51"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="Pending URLs" sheetId="5" r:id="rId2"/>
-    <sheet name="Details" sheetId="1" r:id="rId3"/>
+    <sheet name="Details" sheetId="1" r:id="rId2"/>
+    <sheet name="Pending URLs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="114">
   <si>
     <t>URL</t>
   </si>
@@ -545,13 +545,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,13 +870,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -906,22 +906,22 @@
         <v>35</v>
       </c>
       <c r="D4" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="16">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -946,6 +946,1137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="11" customWidth="1"/>
+    <col min="5" max="7" width="17.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="14">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="14">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="14">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14">
+        <v>48</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="14">
+        <v>48</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14">
+        <v>48</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="17">
+        <v>42341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="14">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="14">
+        <v>48</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="14">
+        <v>48</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="14">
+        <v>48</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="14">
+        <v>48</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="14">
+        <v>48</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="14">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="14">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="14">
+        <v>30</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="14">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17">
+        <v>42341</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>42341</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="14">
+        <v>30</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="17">
+        <v>42341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="14">
+        <v>48</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="14">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="14">
+        <v>48</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="14">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="14">
+        <v>48</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="14">
+        <v>48</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="14">
+        <v>48</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="14">
+        <v>48</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="14">
+        <v>48</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="14">
+        <v>48</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>42345</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="14">
+        <v>48</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="14">
+        <v>48</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="14">
+        <v>48</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="14">
+        <v>48</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="14">
+        <v>48</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="17">
+        <v>42349</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B2" r:id="rId16"/>
+    <hyperlink ref="B4" r:id="rId17"/>
+    <hyperlink ref="B3" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -1297,1135 +2428,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="11" customWidth="1"/>
-    <col min="5" max="7" width="17.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="14">
-        <v>9</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="14">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="14">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="14">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="14">
-        <v>9</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="14">
-        <v>48</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="14">
-        <v>48</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="14">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="14">
-        <v>48</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="17">
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="14">
-        <v>48</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="14">
-        <v>48</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="14">
-        <v>48</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="14">
-        <v>48</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="14">
-        <v>48</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="14">
-        <v>48</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="14">
-        <v>30</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="14">
-        <v>30</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="14">
-        <v>30</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="14">
-        <v>30</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="17">
-        <v>42341</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>42341</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="14">
-        <v>30</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="17">
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="14">
-        <v>48</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="14">
-        <v>48</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="14">
-        <v>48</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="14">
-        <v>48</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="14">
-        <v>48</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="14">
-        <v>48</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="14">
-        <v>48</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="14">
-        <v>48</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="14">
-        <v>48</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>42347</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="14">
-        <v>48</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>42345</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="14">
-        <v>48</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>42347</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="14">
-        <v>48</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>42347</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="14">
-        <v>48</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>42347</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="14">
-        <v>48</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>42347</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="14">
-        <v>48</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="17">
-        <v>42349</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B18" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B20" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B19" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B21" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B2" r:id="rId16"/>
-    <hyperlink ref="B4" r:id="rId17"/>
-    <hyperlink ref="B3" r:id="rId18"/>
-    <hyperlink ref="B6" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B28" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B32" r:id="rId29"/>
-    <hyperlink ref="B33" r:id="rId30"/>
-    <hyperlink ref="B35" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B36" r:id="rId33"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
-</worksheet>
 </file>
--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="114">
   <si>
     <t>URL</t>
   </si>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,10 +906,10 @@
         <v>35</v>
       </c>
       <c r="D4" s="16">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1620,7 @@
         <v>91</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="17">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,10 +1889,10 @@
       <c r="G31" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="22"/>
       <c r="J31" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="22"/>
       <c r="J32" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,10 +1945,10 @@
       <c r="G33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="22"/>
       <c r="J33" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,12 +1971,14 @@
         <v>91</v>
       </c>
       <c r="G34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="13"/>
       <c r="I34" s="22"/>
       <c r="J34" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,12 +2001,14 @@
         <v>91</v>
       </c>
       <c r="G35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="13"/>
       <c r="I35" s="22"/>
       <c r="J35" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2027,12 +2031,14 @@
         <v>91</v>
       </c>
       <c r="G36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="13"/>
       <c r="I36" s="22"/>
       <c r="J36" s="17">
-        <v>42349</v>
+        <v>42353</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="114">
   <si>
     <t>URL</t>
   </si>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,16 +900,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="16">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16">
         <v>35</v>
       </c>
       <c r="D4" s="16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -947,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>91</v>
@@ -1483,7 +1483,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>91</v>
@@ -1514,7 +1514,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>91</v>
@@ -1545,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="D20" s="14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>91</v>
@@ -1578,7 +1578,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>91</v>
@@ -1650,7 +1650,7 @@
         <v>91</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="17">
@@ -1710,7 +1710,7 @@
         <v>91</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="17">
@@ -1740,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="17">
@@ -1770,7 +1770,7 @@
         <v>91</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="17">
@@ -1800,7 +1800,7 @@
         <v>91</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="17">
@@ -1830,7 +1830,7 @@
         <v>91</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="17">
@@ -1860,7 +1860,7 @@
         <v>91</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="17">
@@ -1887,9 +1887,11 @@
         <v>91</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="I31" s="22"/>
       <c r="J31" s="17">
         <v>42353</v>
@@ -1915,9 +1917,11 @@
         <v>91</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="I32" s="22"/>
       <c r="J32" s="17">
         <v>42353</v>
@@ -1943,9 +1947,11 @@
         <v>91</v>
       </c>
       <c r="G33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="14"/>
       <c r="I33" s="22"/>
       <c r="J33" s="17">
         <v>42353</v>
@@ -2039,6 +2045,198 @@
       <c r="I36" s="22"/>
       <c r="J36" s="17">
         <v>42353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="14">
+        <v>9</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="17">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="14">
+        <v>9</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="17">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="14">
+        <v>9</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="14">
+        <v>9</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="17">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="14">
+        <v>9</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="17">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="14">
+        <v>9</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="17">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>42352</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="14">
+        <v>9</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="17">
+        <v>42356</v>
       </c>
     </row>
   </sheetData>
@@ -2076,17 +2274,26 @@
     <hyperlink ref="B35" r:id="rId31"/>
     <hyperlink ref="B34" r:id="rId32"/>
     <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B42" r:id="rId34"/>
+    <hyperlink ref="B41" r:id="rId35"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B37" r:id="rId38"/>
+    <hyperlink ref="B38" r:id="rId39"/>
+    <hyperlink ref="B39" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2095,342 +2302,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>90</v>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
+      <c r="A8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
+      <c r="A14" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>43</v>
+      <c r="A19" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>58</v>
+      <c r="A26" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>89</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B30" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1"/>
-    <hyperlink ref="A24" r:id="rId2"/>
-    <hyperlink ref="A28" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
-    <hyperlink ref="A31" r:id="rId5"/>
-    <hyperlink ref="A14" r:id="rId6"/>
-    <hyperlink ref="A30" r:id="rId7"/>
-    <hyperlink ref="A13" r:id="rId8"/>
-    <hyperlink ref="A27" r:id="rId9"/>
-    <hyperlink ref="A5" r:id="rId10"/>
-    <hyperlink ref="A34" r:id="rId11"/>
-    <hyperlink ref="A36" r:id="rId12"/>
-    <hyperlink ref="A22" r:id="rId13"/>
-    <hyperlink ref="A19" r:id="rId14"/>
-    <hyperlink ref="A7" r:id="rId15"/>
-    <hyperlink ref="A37" r:id="rId16"/>
-    <hyperlink ref="A11" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A22" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A20" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
+    <hyperlink ref="A26" r:id="rId9"/>
+    <hyperlink ref="A28" r:id="rId10"/>
+    <hyperlink ref="A16" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A3" r:id="rId13"/>
+    <hyperlink ref="A29" r:id="rId14"/>
+    <hyperlink ref="A6" r:id="rId15"/>
+    <hyperlink ref="A15" r:id="rId16"/>
+    <hyperlink ref="A12" r:id="rId17"/>
     <hyperlink ref="A21" r:id="rId18"/>
-    <hyperlink ref="A18" r:id="rId19"/>
-    <hyperlink ref="A29" r:id="rId20"/>
-    <hyperlink ref="A6" r:id="rId21"/>
-    <hyperlink ref="A35" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A32" r:id="rId24"/>
-    <hyperlink ref="A20" r:id="rId25"/>
-    <hyperlink ref="A17" r:id="rId26"/>
-    <hyperlink ref="A33" r:id="rId27"/>
-    <hyperlink ref="A8" r:id="rId28"/>
-    <hyperlink ref="A3" r:id="rId29"/>
-    <hyperlink ref="A2" r:id="rId30"/>
-    <hyperlink ref="A16" r:id="rId31"/>
-    <hyperlink ref="A23" r:id="rId32"/>
-    <hyperlink ref="A4" r:id="rId33"/>
-    <hyperlink ref="A38" r:id="rId34"/>
-    <hyperlink ref="A15" r:id="rId35"/>
-    <hyperlink ref="A12" r:id="rId36"/>
-    <hyperlink ref="A26" r:id="rId37"/>
+    <hyperlink ref="A2" r:id="rId19"/>
+    <hyperlink ref="A27" r:id="rId20"/>
+    <hyperlink ref="A5" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A14" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A25" r:id="rId25"/>
+    <hyperlink ref="A4" r:id="rId26"/>
+    <hyperlink ref="A10" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A9" r:id="rId29"/>
+    <hyperlink ref="A19" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="117">
   <si>
     <t>URL</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>Product-Listing</t>
+  </si>
+  <si>
+    <t>Resp-B.Guide</t>
+  </si>
+  <si>
+    <t>Buyers-Guide</t>
+  </si>
+  <si>
+    <t>In Progress(9 locales testing completed, rest in progress)</t>
   </si>
 </sst>
 </file>
@@ -860,7 +869,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,16 +909,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="16">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" s="16">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="16">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -947,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +969,7 @@
     <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="11" customWidth="1"/>
     <col min="5" max="7" width="17.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="10" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
@@ -1017,7 +1026,7 @@
         <v>91</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="25"/>
@@ -1950,7 +1959,7 @@
         <v>91</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="17">
@@ -1980,7 +1989,7 @@
         <v>91</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="17">
@@ -2010,7 +2019,7 @@
         <v>91</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="17">
@@ -2040,7 +2049,7 @@
         <v>91</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="17">
@@ -2058,21 +2067,23 @@
         <v>87</v>
       </c>
       <c r="D37" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I37" s="22"/>
       <c r="J37" s="17">
-        <v>42356</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2086,21 +2097,23 @@
         <v>83</v>
       </c>
       <c r="D38" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I38" s="22"/>
       <c r="J38" s="17">
-        <v>42356</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2114,19 +2127,23 @@
         <v>83</v>
       </c>
       <c r="D39" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I39" s="22"/>
       <c r="J39" s="17">
-        <v>42356</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,21 +2157,23 @@
         <v>89</v>
       </c>
       <c r="D40" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="I40" s="22"/>
       <c r="J40" s="17">
-        <v>42356</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,21 +2187,23 @@
         <v>81</v>
       </c>
       <c r="D41" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I41" s="22"/>
       <c r="J41" s="17">
-        <v>42356</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2196,21 +2217,23 @@
         <v>81</v>
       </c>
       <c r="D42" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I42" s="22"/>
       <c r="J42" s="17">
-        <v>42356</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2224,20 +2247,67 @@
         <v>81</v>
       </c>
       <c r="D43" s="14">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I43" s="22"/>
       <c r="J43" s="17">
+        <v>42360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>42356</v>
       </c>
+      <c r="B44" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="14">
+        <v>9</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>42356</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="14">
+        <v>9</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2281,18 +2351,20 @@
     <hyperlink ref="B37" r:id="rId38"/>
     <hyperlink ref="B38" r:id="rId39"/>
     <hyperlink ref="B39" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2399,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>83</v>
@@ -2335,7 +2407,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>83</v>
@@ -2343,47 +2415,47 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
+      <c r="A7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
+      <c r="A8" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>86</v>
@@ -2391,23 +2463,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>87</v>
@@ -2415,23 +2487,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>56</v>
+      <c r="A17" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>88</v>
@@ -2439,61 +2511,63 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>58</v>
+      <c r="A19" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>62</v>
+      <c r="A22" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="14"/>
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>113</v>
@@ -2501,15 +2575,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>113</v>
@@ -2517,56 +2591,42 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A22" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A20" r:id="rId7"/>
+    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A20" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A18" r:id="rId7"/>
     <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A26" r:id="rId9"/>
-    <hyperlink ref="A28" r:id="rId10"/>
-    <hyperlink ref="A16" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A24" r:id="rId9"/>
+    <hyperlink ref="A26" r:id="rId10"/>
+    <hyperlink ref="A14" r:id="rId11"/>
+    <hyperlink ref="A11" r:id="rId12"/>
     <hyperlink ref="A3" r:id="rId13"/>
-    <hyperlink ref="A29" r:id="rId14"/>
-    <hyperlink ref="A6" r:id="rId15"/>
-    <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="A12" r:id="rId17"/>
-    <hyperlink ref="A21" r:id="rId18"/>
+    <hyperlink ref="A27" r:id="rId14"/>
+    <hyperlink ref="A5" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
     <hyperlink ref="A2" r:id="rId19"/>
-    <hyperlink ref="A27" r:id="rId20"/>
-    <hyperlink ref="A5" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A14" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A25" r:id="rId25"/>
-    <hyperlink ref="A4" r:id="rId26"/>
-    <hyperlink ref="A10" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
-    <hyperlink ref="A9" r:id="rId29"/>
-    <hyperlink ref="A19" r:id="rId30"/>
+    <hyperlink ref="A25" r:id="rId20"/>
+    <hyperlink ref="A4" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A12" r:id="rId23"/>
+    <hyperlink ref="A9" r:id="rId24"/>
+    <hyperlink ref="A23" r:id="rId25"/>
+    <hyperlink ref="A8" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A17" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVWMigration\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="122">
   <si>
     <t>URL</t>
   </si>
@@ -372,13 +372,28 @@
   </si>
   <si>
     <t>In Progress(9 locales testing completed, rest in progress)</t>
+  </si>
+  <si>
+    <t>R-Prod-Listing</t>
+  </si>
+  <si>
+    <t>R-Service-Listing</t>
+  </si>
+  <si>
+    <t>R-Solution-Listing</t>
+  </si>
+  <si>
+    <t>R-Technology</t>
+  </si>
+  <si>
+    <t>Blocker(Chard down)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +449,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -501,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -561,6 +591,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -869,7 +905,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,16 +945,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="16">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C4" s="16">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D4" s="16">
         <v>37</v>
       </c>
       <c r="E4" s="16">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H7:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,6 +1147,10 @@
       <c r="J5" s="14" t="s">
         <v>110</v>
       </c>
+      <c r="L5" s="29"/>
+      <c r="M5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -2081,7 +2121,7 @@
       <c r="H37" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="22"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="17">
         <v>42360</v>
       </c>
@@ -2111,7 +2151,7 @@
       <c r="H38" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="22"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="17">
         <v>42360</v>
       </c>
@@ -2141,7 +2181,7 @@
       <c r="H39" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="22"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="17">
         <v>42360</v>
       </c>
@@ -2199,7 +2239,7 @@
         <v>91</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="17">
@@ -2229,7 +2269,7 @@
         <v>91</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="17">
@@ -2261,7 +2301,7 @@
       <c r="H43" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="22"/>
+      <c r="I43" s="30"/>
       <c r="J43" s="17">
         <v>42360</v>
       </c>
@@ -2285,6 +2325,12 @@
       <c r="F44" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
@@ -2294,7 +2340,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="14">
         <v>9</v>
@@ -2305,9 +2351,404 @@
       <c r="F45" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="23"/>
+      <c r="G45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="14">
+        <v>9</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="14">
+        <v>9</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="14">
+        <v>9</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="14">
+        <v>9</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="14">
+        <v>9</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="14">
+        <v>9</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="14">
+        <v>9</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="14">
+        <v>9</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="14">
+        <v>9</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="14">
+        <v>9</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="14">
+        <v>9</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="14">
+        <v>9</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="14">
+        <v>9</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>42359</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="14">
+        <v>9</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2353,18 +2794,32 @@
     <hyperlink ref="B39" r:id="rId40"/>
     <hyperlink ref="B44" r:id="rId41"/>
     <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B48" r:id="rId44"/>
+    <hyperlink ref="B58" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B52" r:id="rId47"/>
+    <hyperlink ref="B47" r:id="rId48"/>
+    <hyperlink ref="B57" r:id="rId49"/>
+    <hyperlink ref="B54" r:id="rId50"/>
+    <hyperlink ref="B59" r:id="rId51"/>
+    <hyperlink ref="B51" r:id="rId52"/>
+    <hyperlink ref="B46" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B53" r:id="rId55"/>
+    <hyperlink ref="B50" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,234 +2854,108 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>43</v>
+      <c r="A11" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="14" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
-    <hyperlink ref="A21" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A20" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A18" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A24" r:id="rId9"/>
-    <hyperlink ref="A26" r:id="rId10"/>
-    <hyperlink ref="A14" r:id="rId11"/>
-    <hyperlink ref="A11" r:id="rId12"/>
-    <hyperlink ref="A3" r:id="rId13"/>
-    <hyperlink ref="A27" r:id="rId14"/>
-    <hyperlink ref="A5" r:id="rId15"/>
-    <hyperlink ref="A13" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A2" r:id="rId19"/>
-    <hyperlink ref="A25" r:id="rId20"/>
-    <hyperlink ref="A4" r:id="rId21"/>
-    <hyperlink ref="A22" r:id="rId22"/>
-    <hyperlink ref="A12" r:id="rId23"/>
-    <hyperlink ref="A9" r:id="rId24"/>
-    <hyperlink ref="A23" r:id="rId25"/>
-    <hyperlink ref="A8" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A17" r:id="rId28"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A1" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A3" r:id="rId8"/>
+    <hyperlink ref="A2" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A4" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A7" r:id="rId13"/>
+    <hyperlink ref="A12" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\30 Dec\Copy from checkout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\4 Jan\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="161">
   <si>
     <t>URL</t>
   </si>
@@ -379,9 +379,6 @@
     <t>R-Technology</t>
   </si>
   <si>
-    <t>Blocker(Chard down)</t>
-  </si>
-  <si>
     <t>R-Benefits</t>
   </si>
   <si>
@@ -487,16 +484,28 @@
     <t>Page is not available across all locales.</t>
   </si>
   <si>
-    <t>Node structure not available</t>
-  </si>
-  <si>
     <t>Waiting for node structure</t>
   </si>
   <si>
-    <t>Not in scope/Redirected/Locale page not available</t>
-  </si>
-  <si>
     <t>Total Pending URL to be migrated</t>
+  </si>
+  <si>
+    <t>9 locales done</t>
+  </si>
+  <si>
+    <t>Open issues reported</t>
+  </si>
+  <si>
+    <t>Not in scope/Redirected</t>
+  </si>
+  <si>
+    <t>Testing in progress</t>
+  </si>
+  <si>
+    <t>Training-Events</t>
+  </si>
+  <si>
+    <t>Partners</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,12 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,12 +675,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,7 +995,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,13 +1035,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="13">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C4" s="13">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E4" s="13">
         <v>27</v>
@@ -1079,9 +1082,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1150,13 +1155,13 @@
         <v>91</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="I2" s="26"/>
       <c r="J2" s="14">
         <v>42374</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -1179,16 +1184,16 @@
         <v>91</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="I3" s="26"/>
       <c r="J3" s="14">
         <v>42374</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="23"/>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1200,7 +1205,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>91</v>
@@ -1212,16 +1217,16 @@
         <v>91</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="27"/>
+        <v>155</v>
+      </c>
+      <c r="I4" s="26"/>
       <c r="J4" s="14">
         <v>42374</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="21"/>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1245,13 +1250,13 @@
         <v>91</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="I5" s="26"/>
       <c r="J5" s="14">
         <v>42374</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="20"/>
       <c r="M5" t="s">
         <v>108</v>
@@ -2050,7 +2055,7 @@
       <c r="H31" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="14">
         <v>42360</v>
       </c>
@@ -2080,7 +2085,7 @@
       <c r="H32" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="14">
         <v>42360</v>
       </c>
@@ -2170,7 +2175,7 @@
       <c r="H35" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="14">
         <v>42360</v>
       </c>
@@ -2195,16 +2200,12 @@
         <v>91</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="H36" s="11"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="14">
-        <v>42375</v>
-      </c>
-      <c r="K36" s="23"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -2229,13 +2230,13 @@
         <v>91</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I37" s="24"/>
       <c r="J37" s="14">
         <v>42375</v>
       </c>
-      <c r="K37" s="23"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -2260,13 +2261,13 @@
         <v>91</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I38" s="24"/>
       <c r="J38" s="14">
         <v>42375</v>
       </c>
-      <c r="K38" s="23"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -2291,13 +2292,13 @@
         <v>91</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I39" s="24"/>
       <c r="J39" s="14">
         <v>42375</v>
       </c>
-      <c r="K39" s="23"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -2322,13 +2323,13 @@
         <v>91</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I40" s="24"/>
       <c r="J40" s="14">
         <v>42375</v>
       </c>
-      <c r="K40" s="23"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -2353,13 +2354,13 @@
         <v>91</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I41" s="24"/>
       <c r="J41" s="14">
         <v>42375</v>
       </c>
-      <c r="K41" s="23"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -2372,7 +2373,7 @@
         <v>114</v>
       </c>
       <c r="D42" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>91</v>
@@ -2384,13 +2385,13 @@
         <v>91</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I42" s="24"/>
       <c r="J42" s="14">
         <v>42375</v>
       </c>
-      <c r="K42" s="23"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -2403,7 +2404,7 @@
         <v>114</v>
       </c>
       <c r="D43" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>91</v>
@@ -2415,13 +2416,13 @@
         <v>91</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I43" s="24"/>
       <c r="J43" s="14">
         <v>42375</v>
       </c>
-      <c r="K43" s="23"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -2434,7 +2435,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>91</v>
@@ -2446,13 +2447,13 @@
         <v>91</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I44" s="24"/>
       <c r="J44" s="14">
         <v>42375</v>
       </c>
-      <c r="K44" s="23"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -2465,7 +2466,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>91</v>
@@ -2477,13 +2478,13 @@
         <v>91</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I45" s="24"/>
       <c r="J45" s="14">
         <v>42375</v>
       </c>
-      <c r="K45" s="23"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -2496,7 +2497,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>91</v>
@@ -2508,13 +2509,13 @@
         <v>91</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I46" s="24"/>
       <c r="J46" s="14">
         <v>42375</v>
       </c>
-      <c r="K46" s="23"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -2527,7 +2528,7 @@
         <v>115</v>
       </c>
       <c r="D47" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>91</v>
@@ -2539,13 +2540,13 @@
         <v>91</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I47" s="24"/>
       <c r="J47" s="14">
         <v>42375</v>
       </c>
-      <c r="K47" s="23"/>
+      <c r="K47" s="27"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -2558,7 +2559,7 @@
         <v>116</v>
       </c>
       <c r="D48" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>91</v>
@@ -2570,13 +2571,13 @@
         <v>91</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I48" s="24"/>
       <c r="J48" s="14">
         <v>42375</v>
       </c>
-      <c r="K48" s="23"/>
+      <c r="K48" s="27"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
@@ -2589,7 +2590,7 @@
         <v>116</v>
       </c>
       <c r="D49" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>91</v>
@@ -2601,13 +2602,13 @@
         <v>91</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I49" s="24"/>
       <c r="J49" s="14">
         <v>42375</v>
       </c>
-      <c r="K49" s="23"/>
+      <c r="K49" s="27"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -2620,7 +2621,7 @@
         <v>116</v>
       </c>
       <c r="D50" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>91</v>
@@ -2632,23 +2633,23 @@
         <v>91</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I50" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I50" s="24"/>
       <c r="J50" s="14">
         <v>42375</v>
       </c>
-      <c r="K50" s="23"/>
+      <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>42359</v>
+        <v>42366</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>117</v>
+        <v>38</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D51" s="11">
         <v>9</v>
@@ -2662,23 +2663,23 @@
       <c r="G51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="23"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="27"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>42366</v>
+        <v>42367</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D52" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>91</v>
@@ -2687,25 +2688,29 @@
         <v>91</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="14">
+        <v>42375</v>
+      </c>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>42367</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>91</v>
@@ -2717,26 +2722,26 @@
         <v>91</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I53" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I53" s="24"/>
       <c r="J53" s="14">
         <v>42375</v>
       </c>
-      <c r="K53" s="23"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>42367</v>
+        <v>42368</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>91</v>
@@ -2748,23 +2753,23 @@
         <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I54" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I54" s="24"/>
       <c r="J54" s="14">
         <v>42375</v>
       </c>
-      <c r="K54" s="23"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>42368</v>
+        <v>42367</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -2781,18 +2786,18 @@
       <c r="H55" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="25"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="14">
         <v>42375</v>
       </c>
-      <c r="K55" s="23"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>42367</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>114</v>
@@ -2812,24 +2817,24 @@
       <c r="H56" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I56" s="25"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="14">
         <v>42375</v>
       </c>
-      <c r="K56" s="23"/>
+      <c r="K56" s="27"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>42367</v>
+        <v>42009</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="D57" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>91</v>
@@ -2843,11 +2848,274 @@
       <c r="H57" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="25"/>
+      <c r="I57" s="24"/>
       <c r="J57" s="14">
-        <v>42375</v>
-      </c>
-      <c r="K57" s="23"/>
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="11">
+        <v>9</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="24"/>
+      <c r="J58" s="14">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="11">
+        <v>48</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="14">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="11">
+        <v>9</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" s="24"/>
+      <c r="J60" s="14">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="11">
+        <v>9</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="14">
+        <v>42380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="11">
+        <v>9</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="14">
+        <v>42380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="11">
+        <v>9</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="24"/>
+      <c r="J63" s="14">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="11">
+        <v>9</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="24"/>
+      <c r="J64" s="14">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="11">
+        <v>9</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="14">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>42009</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="11">
+        <v>9</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="14">
+        <v>42380</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2902,18 +3170,26 @@
     <hyperlink ref="B52" r:id="rId49"/>
     <hyperlink ref="B53" r:id="rId50"/>
     <hyperlink ref="B54" r:id="rId51"/>
-    <hyperlink ref="B55" r:id="rId52"/>
-    <hyperlink ref="B57" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B57" r:id="rId54"/>
+    <hyperlink ref="B58" r:id="rId55"/>
+    <hyperlink ref="B59" r:id="rId56"/>
+    <hyperlink ref="B60" r:id="rId57"/>
+    <hyperlink ref="B61" r:id="rId58"/>
+    <hyperlink ref="B62" r:id="rId59"/>
+    <hyperlink ref="B64" r:id="rId60"/>
+    <hyperlink ref="B65" r:id="rId61"/>
+    <hyperlink ref="B66" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2932,7 +3208,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,7 +3219,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,7 +3230,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,7 +3241,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,10 +3249,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,10 +3260,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,7 +3274,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,7 +3285,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,363 +3296,268 @@
         <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="26" t="s">
-        <v>154</v>
+      <c r="C11" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="26" t="s">
-        <v>154</v>
+      <c r="C12" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="C36" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>155</v>
+      <c r="A38" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="6">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="6">
-        <v>8</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3390,43 +3571,35 @@
     <hyperlink ref="A3" r:id="rId7"/>
     <hyperlink ref="A4" r:id="rId8"/>
     <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A28" r:id="rId12"/>
-    <hyperlink ref="A24" r:id="rId13"/>
-    <hyperlink ref="A25" r:id="rId14"/>
-    <hyperlink ref="A27" r:id="rId15"/>
-    <hyperlink ref="A26" r:id="rId16"/>
-    <hyperlink ref="A23" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A19" r:id="rId21"/>
-    <hyperlink ref="A16" r:id="rId22"/>
-    <hyperlink ref="A15" r:id="rId23"/>
-    <hyperlink ref="A35" r:id="rId24"/>
-    <hyperlink ref="A30" r:id="rId25"/>
-    <hyperlink ref="A14" r:id="rId26"/>
-    <hyperlink ref="A17" r:id="rId27"/>
-    <hyperlink ref="A13" r:id="rId28"/>
-    <hyperlink ref="A37" r:id="rId29"/>
-    <hyperlink ref="A33" r:id="rId30"/>
-    <hyperlink ref="A22" r:id="rId31"/>
+    <hyperlink ref="A26" r:id="rId10"/>
+    <hyperlink ref="A22" r:id="rId11"/>
+    <hyperlink ref="A23" r:id="rId12"/>
+    <hyperlink ref="A25" r:id="rId13"/>
+    <hyperlink ref="A24" r:id="rId14"/>
+    <hyperlink ref="A21" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A17" r:id="rId19"/>
+    <hyperlink ref="A14" r:id="rId20"/>
+    <hyperlink ref="A13" r:id="rId21"/>
+    <hyperlink ref="A33" r:id="rId22"/>
+    <hyperlink ref="A28" r:id="rId23"/>
+    <hyperlink ref="A12" r:id="rId24"/>
+    <hyperlink ref="A15" r:id="rId25"/>
+    <hyperlink ref="A11" r:id="rId26"/>
+    <hyperlink ref="A35" r:id="rId27"/>
+    <hyperlink ref="A31" r:id="rId28"/>
+    <hyperlink ref="A20" r:id="rId29"/>
+    <hyperlink ref="A27" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
     <hyperlink ref="A29" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A31" r:id="rId34"/>
-    <hyperlink ref="A32" r:id="rId35"/>
-    <hyperlink ref="A36" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A45" r:id="rId43"/>
+    <hyperlink ref="A30" r:id="rId33"/>
+    <hyperlink ref="A34" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -3449,7 +3622,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3555,7 +3728,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3651,7 +3824,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,169 +4285,169 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="11"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="11"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="11"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="11"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="11"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="11"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="11"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="11"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="11"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="11"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="11"/>
     </row>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\4 Jan\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\8 Jan\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="161">
   <si>
     <t>URL</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Redirected page</t>
   </si>
   <si>
-    <t>Page is not available across all locales.</t>
-  </si>
-  <si>
     <t>Waiting for node structure</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t>Partners</t>
+  </si>
+  <si>
+    <t>Redirected page (new)</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1035,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="13">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" s="13">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="13">
         <v>61</v>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1193,7 @@
       <c r="K3" s="27"/>
       <c r="L3" s="23"/>
       <c r="M3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>91</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="14">
@@ -2230,7 +2230,7 @@
         <v>91</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="14">
@@ -2261,7 +2261,7 @@
         <v>91</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="14">
@@ -2292,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="14">
@@ -2323,7 +2323,7 @@
         <v>91</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="14">
@@ -2354,7 +2354,7 @@
         <v>91</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="14">
@@ -2385,7 +2385,7 @@
         <v>91</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="14">
@@ -2416,7 +2416,7 @@
         <v>91</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="14">
@@ -2447,7 +2447,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="14">
@@ -2478,7 +2478,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="14">
@@ -2509,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="14">
@@ -2540,7 +2540,7 @@
         <v>91</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="14">
@@ -2571,7 +2571,7 @@
         <v>91</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="14">
@@ -2602,7 +2602,7 @@
         <v>91</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="14">
@@ -2633,7 +2633,7 @@
         <v>91</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="14">
@@ -2691,7 +2691,7 @@
         <v>91</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="14">
@@ -2722,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="14">
@@ -2753,7 +2753,7 @@
         <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="14">
@@ -2876,7 +2876,7 @@
         <v>91</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="14">
@@ -2936,7 +2936,7 @@
         <v>91</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="14">
@@ -3022,7 +3022,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="14">
@@ -3067,7 +3067,7 @@
         <v>122</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" s="11">
         <v>9</v>
@@ -3082,7 +3082,7 @@
         <v>91</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="14">
@@ -3097,7 +3097,7 @@
         <v>126</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" s="11">
         <v>9</v>
@@ -3115,6 +3115,62 @@
       <c r="I66" s="25"/>
       <c r="J66" s="14">
         <v>42380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>42011</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="11">
+        <v>9</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="14">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>42011</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="11">
+        <v>9</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="14">
+        <v>42382</v>
       </c>
     </row>
   </sheetData>
@@ -3181,15 +3237,17 @@
     <hyperlink ref="B64" r:id="rId60"/>
     <hyperlink ref="B65" r:id="rId61"/>
     <hyperlink ref="B66" r:id="rId62"/>
+    <hyperlink ref="B68" r:id="rId63"/>
+    <hyperlink ref="B67" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3268,296 +3326,274 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>152</v>
+        <v>120</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="25" t="s">
-        <v>108</v>
+      <c r="C10" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="C34" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="6">
-        <v>6</v>
+      <c r="B36" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="6">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3565,41 +3601,39 @@
     <hyperlink ref="A5" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A3" r:id="rId7"/>
-    <hyperlink ref="A4" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A26" r:id="rId10"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A24" r:id="rId7"/>
+    <hyperlink ref="A20" r:id="rId8"/>
+    <hyperlink ref="A21" r:id="rId9"/>
+    <hyperlink ref="A23" r:id="rId10"/>
     <hyperlink ref="A22" r:id="rId11"/>
-    <hyperlink ref="A23" r:id="rId12"/>
-    <hyperlink ref="A25" r:id="rId13"/>
-    <hyperlink ref="A24" r:id="rId14"/>
-    <hyperlink ref="A21" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A17" r:id="rId19"/>
-    <hyperlink ref="A14" r:id="rId20"/>
-    <hyperlink ref="A13" r:id="rId21"/>
-    <hyperlink ref="A33" r:id="rId22"/>
-    <hyperlink ref="A28" r:id="rId23"/>
-    <hyperlink ref="A12" r:id="rId24"/>
-    <hyperlink ref="A15" r:id="rId25"/>
-    <hyperlink ref="A11" r:id="rId26"/>
-    <hyperlink ref="A35" r:id="rId27"/>
-    <hyperlink ref="A31" r:id="rId28"/>
-    <hyperlink ref="A20" r:id="rId29"/>
-    <hyperlink ref="A27" r:id="rId30"/>
+    <hyperlink ref="A19" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A15" r:id="rId16"/>
+    <hyperlink ref="A12" r:id="rId17"/>
+    <hyperlink ref="A11" r:id="rId18"/>
+    <hyperlink ref="A31" r:id="rId19"/>
+    <hyperlink ref="A26" r:id="rId20"/>
+    <hyperlink ref="A10" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A9" r:id="rId23"/>
+    <hyperlink ref="A33" r:id="rId24"/>
+    <hyperlink ref="A29" r:id="rId25"/>
+    <hyperlink ref="A18" r:id="rId26"/>
+    <hyperlink ref="A25" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A27" r:id="rId29"/>
+    <hyperlink ref="A28" r:id="rId30"/>
     <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A29" r:id="rId32"/>
-    <hyperlink ref="A30" r:id="rId33"/>
-    <hyperlink ref="A34" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A7" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\8 Jan\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repodev\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Rework" sheetId="7" r:id="rId4"/>
     <sheet name="Final URLs" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="163">
   <si>
     <t>URL</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>Redirected page (new)</t>
+  </si>
+  <si>
+    <t>Testing for 48 locales</t>
+  </si>
+  <si>
+    <t>Testing for 9 locales</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -685,6 +691,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,13 +1007,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,7 +1040,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>5</v>
+        <v>162</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,9 +1057,12 @@
         <v>67</v>
       </c>
       <c r="D4" s="13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="13">
+        <v>53</v>
+      </c>
+      <c r="F4" s="31">
         <v>27</v>
       </c>
     </row>
@@ -1075,8 +1094,10 @@
     <hyperlink ref="C4" location="Details!F2" display="Details!F2"/>
     <hyperlink ref="D4" location="Details!G2" display="Details!G2"/>
     <hyperlink ref="E4" location="Details!H2" display="Details!H2"/>
+    <hyperlink ref="F4" location="Details!H1" display="Details!H1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1084,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2984,7 @@
         <v>91</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="25"/>
@@ -2991,7 +3012,7 @@
         <v>91</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="25"/>
@@ -3249,7 +3270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3315,10 +3338,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>118</v>
+        <v>61</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>151</v>
@@ -3326,36 +3349,38 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="25" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="25" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
@@ -3364,7 +3389,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
@@ -3373,7 +3398,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="6" t="s">
@@ -3382,7 +3407,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
@@ -3391,7 +3416,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
@@ -3400,7 +3425,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
@@ -3409,7 +3434,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
@@ -3418,7 +3443,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
@@ -3427,7 +3452,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
@@ -3436,7 +3461,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
@@ -3445,7 +3470,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
@@ -3454,7 +3479,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
@@ -3463,7 +3488,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
@@ -3472,7 +3497,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
@@ -3481,7 +3506,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
@@ -3490,7 +3515,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
@@ -3499,7 +3524,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
@@ -3508,7 +3533,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
@@ -3517,7 +3542,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
@@ -3526,7 +3551,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
@@ -3535,7 +3560,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
@@ -3544,7 +3569,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="6" t="s">
@@ -3553,7 +3578,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="6" t="s">
@@ -3562,7 +3587,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="6" t="s">
@@ -3571,13 +3596,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>117</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,38 +3622,38 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="A3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A24" r:id="rId7"/>
-    <hyperlink ref="A20" r:id="rId8"/>
-    <hyperlink ref="A21" r:id="rId9"/>
-    <hyperlink ref="A23" r:id="rId10"/>
-    <hyperlink ref="A22" r:id="rId11"/>
-    <hyperlink ref="A19" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A16" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
-    <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="A12" r:id="rId17"/>
-    <hyperlink ref="A11" r:id="rId18"/>
-    <hyperlink ref="A31" r:id="rId19"/>
-    <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A10" r:id="rId21"/>
-    <hyperlink ref="A13" r:id="rId22"/>
-    <hyperlink ref="A9" r:id="rId23"/>
-    <hyperlink ref="A33" r:id="rId24"/>
-    <hyperlink ref="A29" r:id="rId25"/>
-    <hyperlink ref="A18" r:id="rId26"/>
-    <hyperlink ref="A25" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
-    <hyperlink ref="A27" r:id="rId29"/>
-    <hyperlink ref="A28" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A34" r:id="rId32"/>
-    <hyperlink ref="A7" r:id="rId33"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A25" r:id="rId7"/>
+    <hyperlink ref="A21" r:id="rId8"/>
+    <hyperlink ref="A22" r:id="rId9"/>
+    <hyperlink ref="A24" r:id="rId10"/>
+    <hyperlink ref="A23" r:id="rId11"/>
+    <hyperlink ref="A20" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A17" r:id="rId14"/>
+    <hyperlink ref="A18" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A13" r:id="rId17"/>
+    <hyperlink ref="A12" r:id="rId18"/>
+    <hyperlink ref="A32" r:id="rId19"/>
+    <hyperlink ref="A27" r:id="rId20"/>
+    <hyperlink ref="A11" r:id="rId21"/>
+    <hyperlink ref="A14" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A34" r:id="rId24"/>
+    <hyperlink ref="A30" r:id="rId25"/>
+    <hyperlink ref="A19" r:id="rId26"/>
+    <hyperlink ref="A26" r:id="rId27"/>
+    <hyperlink ref="A31" r:id="rId28"/>
+    <hyperlink ref="A28" r:id="rId29"/>
+    <hyperlink ref="A29" r:id="rId30"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A6" r:id="rId32"/>
+    <hyperlink ref="A8" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -683,20 +683,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,13 +1015,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1042,7 +1039,7 @@
       <c r="E3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1062,20 +1059,20 @@
       <c r="E4" s="13">
         <v>53</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -1105,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,11 +1175,11 @@
       <c r="H2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="14">
         <v>42374</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -1207,11 +1204,11 @@
       <c r="H3" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="14">
         <v>42374</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="23"/>
       <c r="M3" t="s">
         <v>157</v>
@@ -1240,11 +1237,11 @@
       <c r="H4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="14">
         <v>42374</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="21"/>
       <c r="M4" t="s">
         <v>147</v>
@@ -1273,11 +1270,11 @@
       <c r="H5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="14">
         <v>42374</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="20"/>
       <c r="M5" t="s">
         <v>108</v>
@@ -2226,7 +2223,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="25"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="27"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -2257,7 +2254,7 @@
       <c r="J37" s="14">
         <v>42375</v>
       </c>
-      <c r="K37" s="27"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -2288,7 +2285,7 @@
       <c r="J38" s="14">
         <v>42375</v>
       </c>
-      <c r="K38" s="27"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -2319,7 +2316,7 @@
       <c r="J39" s="14">
         <v>42375</v>
       </c>
-      <c r="K39" s="27"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -2350,7 +2347,7 @@
       <c r="J40" s="14">
         <v>42375</v>
       </c>
-      <c r="K40" s="27"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -2381,7 +2378,7 @@
       <c r="J41" s="14">
         <v>42375</v>
       </c>
-      <c r="K41" s="27"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -2412,7 +2409,7 @@
       <c r="J42" s="14">
         <v>42375</v>
       </c>
-      <c r="K42" s="27"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -2443,7 +2440,7 @@
       <c r="J43" s="14">
         <v>42375</v>
       </c>
-      <c r="K43" s="27"/>
+      <c r="K43" s="26"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -2474,7 +2471,7 @@
       <c r="J44" s="14">
         <v>42375</v>
       </c>
-      <c r="K44" s="27"/>
+      <c r="K44" s="26"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -2505,7 +2502,7 @@
       <c r="J45" s="14">
         <v>42375</v>
       </c>
-      <c r="K45" s="27"/>
+      <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -2536,7 +2533,7 @@
       <c r="J46" s="14">
         <v>42375</v>
       </c>
-      <c r="K46" s="27"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -2567,7 +2564,7 @@
       <c r="J47" s="14">
         <v>42375</v>
       </c>
-      <c r="K47" s="27"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -2598,7 +2595,7 @@
       <c r="J48" s="14">
         <v>42375</v>
       </c>
-      <c r="K48" s="27"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
@@ -2629,7 +2626,7 @@
       <c r="J49" s="14">
         <v>42375</v>
       </c>
-      <c r="K49" s="27"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -2660,7 +2657,7 @@
       <c r="J50" s="14">
         <v>42375</v>
       </c>
-      <c r="K50" s="27"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
@@ -2687,7 +2684,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="27"/>
+      <c r="K51" s="26"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -2718,7 +2715,7 @@
       <c r="J52" s="14">
         <v>42375</v>
       </c>
-      <c r="K52" s="27"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
@@ -2749,7 +2746,7 @@
       <c r="J53" s="14">
         <v>42375</v>
       </c>
-      <c r="K53" s="27"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
@@ -2780,7 +2777,7 @@
       <c r="J54" s="14">
         <v>42375</v>
       </c>
-      <c r="K54" s="27"/>
+      <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
@@ -2811,7 +2808,7 @@
       <c r="J55" s="14">
         <v>42375</v>
       </c>
-      <c r="K55" s="27"/>
+      <c r="K55" s="26"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
@@ -2842,7 +2839,7 @@
       <c r="J56" s="14">
         <v>42375</v>
       </c>
-      <c r="K56" s="27"/>
+      <c r="K56" s="26"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
@@ -2987,7 +2984,7 @@
         <v>91</v>
       </c>
       <c r="H61" s="11"/>
-      <c r="I61" s="25"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="14">
         <v>42380</v>
       </c>
@@ -3015,7 +3012,7 @@
         <v>91</v>
       </c>
       <c r="H62" s="11"/>
-      <c r="I62" s="25"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="14">
         <v>42380</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>91</v>
       </c>
       <c r="H66" s="11"/>
-      <c r="I66" s="25"/>
+      <c r="I66" s="23"/>
       <c r="J66" s="14">
         <v>42380</v>
       </c>
@@ -3270,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3756,7 +3753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repodev\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\11 Jan\434PM\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Rework" sheetId="7" r:id="rId4"/>
     <sheet name="Final URLs" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$78</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="177">
   <si>
     <t>URL</t>
   </si>
@@ -364,9 +367,6 @@
     <t>Buyers-Guide</t>
   </si>
   <si>
-    <t>In Progress(9 locales testing completed, rest in progress)</t>
-  </si>
-  <si>
     <t>R-Prod-Listing</t>
   </si>
   <si>
@@ -469,9 +469,6 @@
     <t>Rework</t>
   </si>
   <si>
-    <t xml:space="preserve">In Progress </t>
-  </si>
-  <si>
     <t>Additional Comments</t>
   </si>
   <si>
@@ -481,18 +478,9 @@
     <t>Redirected page</t>
   </si>
   <si>
-    <t>Waiting for node structure</t>
-  </si>
-  <si>
     <t>Total Pending URL to be migrated</t>
   </si>
   <si>
-    <t>9 locales done</t>
-  </si>
-  <si>
-    <t>Open issues reported</t>
-  </si>
-  <si>
     <t>Not in scope/Redirected</t>
   </si>
   <si>
@@ -512,6 +500,63 @@
   </si>
   <si>
     <t>Testing for 9 locales</t>
+  </si>
+  <si>
+    <t>Testing yet to start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 locales tested </t>
+  </si>
+  <si>
+    <t>48 test in progress</t>
+  </si>
+  <si>
+    <t>48 reports generation</t>
+  </si>
+  <si>
+    <t>48 locales test to start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 locales tested </t>
+  </si>
+  <si>
+    <t>9 locales test to start</t>
+  </si>
+  <si>
+    <t>9 Locales tested. 48 locales reports generated. Test will start tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 Locales tested today with issues. </t>
+  </si>
+  <si>
+    <t>9 locales tested with issues</t>
+  </si>
+  <si>
+    <t>48 locales testing in progress</t>
+  </si>
+  <si>
+    <t>48 Locales testing done. Dev fixed issues. Re-test pending.</t>
+  </si>
+  <si>
+    <t>9 locales tested with issues. Dev fixed issues today.</t>
+  </si>
+  <si>
+    <t>48 Locales re-test done with issues.</t>
+  </si>
+  <si>
+    <t>Reports shared for test</t>
+  </si>
+  <si>
+    <t>9 locales re-test</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Testing detail report</t>
+  </si>
+  <si>
+    <t>Web url</t>
   </si>
 </sst>
 </file>
@@ -552,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +646,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -630,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -690,12 +741,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1001,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,18 +1071,20 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>94</v>
       </c>
@@ -1037,48 +1098,121 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="13">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E4" s="13">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F4" s="28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="I7" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
+      <c r="I9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="29"/>
+      <c r="I14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="34">
+        <f>SUM(J8:J14)</f>
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1100,11 +1234,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1113,7 +1245,7 @@
     <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="8" customWidth="1"/>
     <col min="5" max="7" width="17.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="8" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
@@ -1161,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>91</v>
@@ -1173,7 +1305,7 @@
         <v>91</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="14">
@@ -1190,7 +1322,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>91</v>
@@ -1202,7 +1334,7 @@
         <v>91</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="14">
@@ -1211,7 +1343,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="23"/>
       <c r="M3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1234,8 +1366,8 @@
       <c r="G4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>154</v>
+      <c r="H4" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="14">
@@ -1244,7 +1376,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="21"/>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1256,7 +1388,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>91</v>
@@ -1268,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="14">
@@ -2071,7 +2203,7 @@
         <v>91</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="14">
@@ -2101,7 +2233,7 @@
         <v>91</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="14">
@@ -2191,7 +2323,7 @@
         <v>91</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="14">
@@ -2235,7 +2367,7 @@
       <c r="C37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="30">
         <v>9</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -2248,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="14">
@@ -2266,7 +2398,7 @@
       <c r="C38" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="30">
         <v>9</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -2279,7 +2411,7 @@
         <v>91</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="14">
@@ -2297,7 +2429,7 @@
       <c r="C39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="30">
         <v>9</v>
       </c>
       <c r="E39" s="11" t="s">
@@ -2310,7 +2442,7 @@
         <v>91</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="14">
@@ -2328,7 +2460,7 @@
       <c r="C40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="30">
         <v>9</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -2341,7 +2473,7 @@
         <v>91</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="14">
@@ -2359,7 +2491,7 @@
       <c r="C41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="30">
         <v>9</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -2372,7 +2504,7 @@
         <v>91</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="14">
@@ -2388,7 +2520,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="11">
         <v>48</v>
@@ -2403,7 +2535,7 @@
         <v>91</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="14">
@@ -2419,7 +2551,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="11">
         <v>48</v>
@@ -2434,7 +2566,7 @@
         <v>91</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="14">
@@ -2450,7 +2582,7 @@
         <v>75</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="11">
         <v>48</v>
@@ -2465,7 +2597,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="14">
@@ -2481,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="11">
         <v>48</v>
@@ -2496,7 +2628,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="14">
@@ -2512,7 +2644,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="11">
         <v>48</v>
@@ -2527,7 +2659,7 @@
         <v>91</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="14">
@@ -2543,7 +2675,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="11">
         <v>48</v>
@@ -2558,7 +2690,7 @@
         <v>91</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="14">
@@ -2574,7 +2706,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="11">
         <v>48</v>
@@ -2589,7 +2721,7 @@
         <v>91</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="14">
@@ -2605,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="11">
         <v>48</v>
@@ -2620,7 +2752,7 @@
         <v>91</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="14">
@@ -2636,7 +2768,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="11">
         <v>48</v>
@@ -2651,7 +2783,7 @@
         <v>91</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="14">
@@ -2709,7 +2841,7 @@
         <v>91</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="14">
@@ -2740,7 +2872,7 @@
         <v>91</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="14">
@@ -2771,7 +2903,7 @@
         <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="14">
@@ -2787,10 +2919,10 @@
         <v>62</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>91</v>
@@ -2802,7 +2934,7 @@
         <v>91</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I55" s="24"/>
       <c r="J55" s="14">
@@ -2818,10 +2950,10 @@
         <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>91</v>
@@ -2833,7 +2965,7 @@
         <v>91</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="14">
@@ -2849,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57" s="11">
         <v>48</v>
@@ -2864,7 +2996,7 @@
         <v>91</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="14">
@@ -2881,8 +3013,8 @@
       <c r="C58" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="11">
-        <v>9</v>
+      <c r="D58" s="30">
+        <v>48</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>91</v>
@@ -2894,7 +3026,7 @@
         <v>91</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="14">
@@ -2909,7 +3041,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="11">
         <v>48</v>
@@ -2924,7 +3056,7 @@
         <v>91</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="14">
@@ -2939,10 +3071,10 @@
         <v>41</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="11">
-        <v>9</v>
+        <v>114</v>
+      </c>
+      <c r="D60" s="30">
+        <v>48</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>91</v>
@@ -2954,7 +3086,7 @@
         <v>91</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="14">
@@ -2969,10 +3101,10 @@
         <v>70</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D61" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>91</v>
@@ -2983,7 +3115,9 @@
       <c r="G61" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="11"/>
+      <c r="H61" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I61" s="23"/>
       <c r="J61" s="14">
         <v>42380</v>
@@ -2997,10 +3131,10 @@
         <v>71</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>91</v>
@@ -3011,7 +3145,9 @@
       <c r="G62" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I62" s="23"/>
       <c r="J62" s="14">
         <v>42380</v>
@@ -3027,8 +3163,8 @@
       <c r="C63" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="11">
-        <v>9</v>
+      <c r="D63" s="30">
+        <v>48</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>91</v>
@@ -3040,7 +3176,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="14">
@@ -3055,10 +3191,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>91</v>
@@ -3070,7 +3206,7 @@
         <v>91</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="14">
@@ -3082,13 +3218,13 @@
         <v>42009</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D65" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>91</v>
@@ -3100,7 +3236,7 @@
         <v>91</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="14">
@@ -3112,13 +3248,13 @@
         <v>42009</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D66" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>91</v>
@@ -3129,7 +3265,9 @@
       <c r="G66" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H66" s="11"/>
+      <c r="H66" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="I66" s="23"/>
       <c r="J66" s="14">
         <v>42380</v>
@@ -3155,9 +3293,11 @@
         <v>91</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H67" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I67" s="25"/>
       <c r="J67" s="14">
         <v>42382</v>
@@ -3183,15 +3323,363 @@
         <v>91</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I68" s="25"/>
       <c r="J68" s="14">
         <v>42382</v>
       </c>
     </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="11">
+        <v>9</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="11">
+        <v>9</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="11">
+        <v>9</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="11">
+        <v>9</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="11">
+        <v>9</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="11">
+        <v>9</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="11">
+        <v>9</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="11">
+        <v>9</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="11">
+        <v>9</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>42015</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="11">
+        <v>9</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>42016</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="11">
+        <v>9</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>42016</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="11">
+        <v>9</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>42016</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="11">
+        <v>9</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>42016</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="11">
+        <v>9</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>42016</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="11">
+        <v>15</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M78"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -3257,19 +3745,32 @@
     <hyperlink ref="B66" r:id="rId62"/>
     <hyperlink ref="B68" r:id="rId63"/>
     <hyperlink ref="B67" r:id="rId64"/>
+    <hyperlink ref="B69" r:id="rId65"/>
+    <hyperlink ref="B70" r:id="rId66"/>
+    <hyperlink ref="B71" r:id="rId67"/>
+    <hyperlink ref="B72" r:id="rId68"/>
+    <hyperlink ref="B73" r:id="rId69"/>
+    <hyperlink ref="B74" r:id="rId70"/>
+    <hyperlink ref="B75" r:id="rId71"/>
+    <hyperlink ref="B76" r:id="rId72"/>
+    <hyperlink ref="B77" r:id="rId73"/>
+    <hyperlink ref="B78" r:id="rId74"/>
+    <hyperlink ref="B79" r:id="rId75"/>
+    <hyperlink ref="B80" r:id="rId76"/>
+    <hyperlink ref="B81" r:id="rId77"/>
+    <hyperlink ref="B82" r:id="rId78"/>
+    <hyperlink ref="B83" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3286,7 +3787,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3297,7 +3798,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3308,7 +3809,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3319,7 +3820,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3327,10 +3828,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3338,10 +3839,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,10 +3850,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3363,256 +3864,99 @@
         <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="25" t="s">
-        <v>152</v>
-      </c>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6" t="s">
-        <v>152</v>
+      <c r="A21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3624,36 +3968,21 @@
     <hyperlink ref="A3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A25" r:id="rId7"/>
-    <hyperlink ref="A21" r:id="rId8"/>
-    <hyperlink ref="A22" r:id="rId9"/>
-    <hyperlink ref="A24" r:id="rId10"/>
-    <hyperlink ref="A23" r:id="rId11"/>
-    <hyperlink ref="A20" r:id="rId12"/>
-    <hyperlink ref="A15" r:id="rId13"/>
-    <hyperlink ref="A17" r:id="rId14"/>
-    <hyperlink ref="A18" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A13" r:id="rId17"/>
-    <hyperlink ref="A12" r:id="rId18"/>
-    <hyperlink ref="A32" r:id="rId19"/>
-    <hyperlink ref="A27" r:id="rId20"/>
-    <hyperlink ref="A11" r:id="rId21"/>
-    <hyperlink ref="A14" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A34" r:id="rId24"/>
-    <hyperlink ref="A30" r:id="rId25"/>
-    <hyperlink ref="A19" r:id="rId26"/>
-    <hyperlink ref="A26" r:id="rId27"/>
-    <hyperlink ref="A31" r:id="rId28"/>
-    <hyperlink ref="A28" r:id="rId29"/>
-    <hyperlink ref="A29" r:id="rId30"/>
-    <hyperlink ref="A33" r:id="rId31"/>
-    <hyperlink ref="A6" r:id="rId32"/>
-    <hyperlink ref="A8" r:id="rId33"/>
+    <hyperlink ref="A17" r:id="rId7"/>
+    <hyperlink ref="A14" r:id="rId8"/>
+    <hyperlink ref="A15" r:id="rId9"/>
+    <hyperlink ref="A16" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A19" r:id="rId13"/>
+    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="A10" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A6" r:id="rId17"/>
+    <hyperlink ref="A8" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3676,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +4021,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +4029,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +4037,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +4045,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +4061,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +4113,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +4161,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +4169,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3880,7 +4209,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +4337,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,7 +4377,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4449,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4457,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4513,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4593,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4601,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4609,7 @@
         <v>75</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4617,7 @@
         <v>39</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,7 +4625,7 @@
         <v>42</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,7 +4633,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +4641,7 @@
         <v>47</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4649,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,174 +4665,174 @@
         <v>61</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="11"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="11"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="11"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B88" s="11"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="11"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="11"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="11"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="11"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="11"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="11"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" s="11"/>
     </row>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\11 Jan\434PM\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\13 Jan\ChkIn2\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Final URLs" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="177">
   <si>
     <t>URL</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Total Pending URL to be migrated</t>
   </si>
   <si>
-    <t>Not in scope/Redirected</t>
-  </si>
-  <si>
     <t>Testing in progress</t>
   </si>
   <si>
@@ -493,18 +490,12 @@
     <t>Partners</t>
   </si>
   <si>
-    <t>Redirected page (new)</t>
-  </si>
-  <si>
     <t>Testing for 48 locales</t>
   </si>
   <si>
     <t>Testing for 9 locales</t>
   </si>
   <si>
-    <t>Testing yet to start</t>
-  </si>
-  <si>
     <t xml:space="preserve">48 locales tested </t>
   </si>
   <si>
@@ -517,33 +508,15 @@
     <t>48 locales test to start</t>
   </si>
   <si>
-    <t xml:space="preserve">9 locales tested </t>
-  </si>
-  <si>
     <t>9 locales test to start</t>
   </si>
   <si>
-    <t>9 Locales tested. 48 locales reports generated. Test will start tomorrow.</t>
-  </si>
-  <si>
     <t xml:space="preserve">48 Locales tested today with issues. </t>
   </si>
   <si>
-    <t>9 locales tested with issues</t>
-  </si>
-  <si>
     <t>48 locales testing in progress</t>
   </si>
   <si>
-    <t>48 Locales testing done. Dev fixed issues. Re-test pending.</t>
-  </si>
-  <si>
-    <t>9 locales tested with issues. Dev fixed issues today.</t>
-  </si>
-  <si>
-    <t>48 Locales re-test done with issues.</t>
-  </si>
-  <si>
     <t>Reports shared for test</t>
   </si>
   <si>
@@ -557,6 +530,33 @@
   </si>
   <si>
     <t>Web url</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>WEM URL not available</t>
+  </si>
+  <si>
+    <t>No need to work</t>
+  </si>
+  <si>
+    <t>Not in scope/Redirected/No need to work</t>
+  </si>
+  <si>
+    <t>Rework Required</t>
+  </si>
+  <si>
+    <t>9 locale Re test is going on</t>
+  </si>
+  <si>
+    <t>48 locales testing done, with open issues</t>
+  </si>
+  <si>
+    <t>9 locales test in progress</t>
+  </si>
+  <si>
+    <t>48 locales testing done with issues.</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -745,16 +745,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1062,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,13 +1077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1098,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,52 +1122,52 @@
         <v>65</v>
       </c>
       <c r="F4" s="28">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="34" t="s">
-        <v>175</v>
+      <c r="I6" s="32" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="I7" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="34">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="I7" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="32">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J8">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1174,23 +1175,23 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1199,17 +1200,17 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="29"/>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="34">
+      <c r="I16" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="32">
         <f>SUM(J8:J14)</f>
         <v>65</v>
       </c>
@@ -1234,9 +1235,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1305,7 +1308,7 @@
         <v>91</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="14">
@@ -1334,7 +1337,7 @@
         <v>91</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="14">
@@ -1343,7 +1346,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="23"/>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1366,8 +1369,8 @@
       <c r="G4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>166</v>
+      <c r="H4" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="14">
@@ -1400,7 +1403,7 @@
         <v>91</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="14">
@@ -2233,7 +2236,7 @@
         <v>91</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="14">
@@ -2323,7 +2326,7 @@
         <v>91</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="14">
@@ -2380,7 +2383,7 @@
         <v>91</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="14">
@@ -2411,7 +2414,7 @@
         <v>91</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="14">
@@ -2442,7 +2445,7 @@
         <v>91</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="14">
@@ -2473,7 +2476,7 @@
         <v>91</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="14">
@@ -2504,7 +2507,7 @@
         <v>91</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="14">
@@ -2628,7 +2631,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="14">
@@ -2659,7 +2662,7 @@
         <v>91</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="14">
@@ -2690,7 +2693,7 @@
         <v>91</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="14">
@@ -2841,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="14">
@@ -2872,7 +2875,7 @@
         <v>91</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="14">
@@ -2903,7 +2906,7 @@
         <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="14">
@@ -3026,7 +3029,7 @@
         <v>91</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="14">
@@ -3086,7 +3089,7 @@
         <v>91</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="14">
@@ -3116,7 +3119,7 @@
         <v>91</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="14">
@@ -3146,7 +3149,7 @@
         <v>91</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I62" s="23"/>
       <c r="J62" s="14">
@@ -3176,7 +3179,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="14">
@@ -3221,7 +3224,7 @@
         <v>121</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="11">
         <v>48</v>
@@ -3236,7 +3239,7 @@
         <v>91</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="14">
@@ -3251,7 +3254,7 @@
         <v>125</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="11">
         <v>48</v>
@@ -3296,7 +3299,7 @@
         <v>91</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="I67" s="25"/>
       <c r="J67" s="14">
@@ -3326,7 +3329,7 @@
         <v>91</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="14">
@@ -3341,7 +3344,7 @@
         <v>120</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D69" s="11">
         <v>9</v>
@@ -3364,7 +3367,7 @@
         <v>128</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D70" s="11">
         <v>9</v>
@@ -3387,7 +3390,7 @@
         <v>129</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D71" s="11">
         <v>9</v>
@@ -3410,7 +3413,7 @@
         <v>134</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D72" s="11">
         <v>9</v>
@@ -3433,7 +3436,7 @@
         <v>139</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D73" s="11">
         <v>9</v>
@@ -3456,19 +3459,19 @@
         <v>131</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D74" s="11">
         <v>9</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3479,19 +3482,19 @@
         <v>140</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D75" s="11">
         <v>9</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,19 +3505,19 @@
         <v>145</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D76" s="11">
         <v>9</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3525,7 +3528,7 @@
         <v>143</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D77" s="11">
         <v>9</v>
@@ -3548,19 +3551,19 @@
         <v>122</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D78" s="11">
         <v>9</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,19 +3574,19 @@
         <v>141</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D79" s="11">
         <v>9</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3594,19 +3597,19 @@
         <v>142</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D80" s="11">
         <v>9</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,19 +3620,19 @@
         <v>144</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D81" s="11">
         <v>9</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3640,19 +3643,19 @@
         <v>123</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D82" s="11">
         <v>9</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3663,23 +3666,138 @@
         <v>130</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D83" s="11">
         <v>15</v>
       </c>
       <c r="E83" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>42017</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="11">
+        <v>9</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G84" s="11" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>42017</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="11">
+        <v>9</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>42017</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="11">
+        <v>9</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>42017</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="11">
+        <v>9</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>42017</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="11">
+        <v>9</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M78"/>
+  <autoFilter ref="A1:M88"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -3735,42 +3853,49 @@
     <hyperlink ref="B56" r:id="rId52"/>
     <hyperlink ref="B55" r:id="rId53"/>
     <hyperlink ref="B57" r:id="rId54"/>
-    <hyperlink ref="B58" r:id="rId55"/>
-    <hyperlink ref="B59" r:id="rId56"/>
-    <hyperlink ref="B60" r:id="rId57"/>
-    <hyperlink ref="B61" r:id="rId58"/>
-    <hyperlink ref="B62" r:id="rId59"/>
-    <hyperlink ref="B64" r:id="rId60"/>
-    <hyperlink ref="B65" r:id="rId61"/>
-    <hyperlink ref="B66" r:id="rId62"/>
-    <hyperlink ref="B68" r:id="rId63"/>
-    <hyperlink ref="B67" r:id="rId64"/>
-    <hyperlink ref="B69" r:id="rId65"/>
-    <hyperlink ref="B70" r:id="rId66"/>
-    <hyperlink ref="B71" r:id="rId67"/>
-    <hyperlink ref="B72" r:id="rId68"/>
-    <hyperlink ref="B73" r:id="rId69"/>
-    <hyperlink ref="B74" r:id="rId70"/>
-    <hyperlink ref="B75" r:id="rId71"/>
-    <hyperlink ref="B76" r:id="rId72"/>
-    <hyperlink ref="B77" r:id="rId73"/>
-    <hyperlink ref="B78" r:id="rId74"/>
-    <hyperlink ref="B79" r:id="rId75"/>
-    <hyperlink ref="B80" r:id="rId76"/>
-    <hyperlink ref="B81" r:id="rId77"/>
-    <hyperlink ref="B82" r:id="rId78"/>
-    <hyperlink ref="B83" r:id="rId79"/>
+    <hyperlink ref="B61" r:id="rId55"/>
+    <hyperlink ref="B62" r:id="rId56"/>
+    <hyperlink ref="B64" r:id="rId57"/>
+    <hyperlink ref="B65" r:id="rId58"/>
+    <hyperlink ref="B66" r:id="rId59"/>
+    <hyperlink ref="B68" r:id="rId60"/>
+    <hyperlink ref="B67" r:id="rId61"/>
+    <hyperlink ref="B69" r:id="rId62"/>
+    <hyperlink ref="B70" r:id="rId63"/>
+    <hyperlink ref="B72" r:id="rId64"/>
+    <hyperlink ref="B73" r:id="rId65"/>
+    <hyperlink ref="B74" r:id="rId66"/>
+    <hyperlink ref="B75" r:id="rId67"/>
+    <hyperlink ref="B76" r:id="rId68"/>
+    <hyperlink ref="B77" r:id="rId69"/>
+    <hyperlink ref="B78" r:id="rId70"/>
+    <hyperlink ref="B79" r:id="rId71"/>
+    <hyperlink ref="B80" r:id="rId72"/>
+    <hyperlink ref="B81" r:id="rId73"/>
+    <hyperlink ref="B82" r:id="rId74"/>
+    <hyperlink ref="B83" r:id="rId75"/>
+    <hyperlink ref="B84" r:id="rId76"/>
+    <hyperlink ref="B85" r:id="rId77"/>
+    <hyperlink ref="B86" r:id="rId78"/>
+    <hyperlink ref="B87" r:id="rId79"/>
+    <hyperlink ref="B88" r:id="rId80"/>
+    <hyperlink ref="B60" r:id="rId81"/>
+    <hyperlink ref="B59" r:id="rId82"/>
+    <hyperlink ref="B58" r:id="rId83"/>
+    <hyperlink ref="B71" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3864,100 +3989,97 @@
         <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A16" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="6">
-        <v>7</v>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3968,35 +4090,30 @@
     <hyperlink ref="A3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A17" r:id="rId7"/>
+    <hyperlink ref="A12" r:id="rId7"/>
     <hyperlink ref="A14" r:id="rId8"/>
-    <hyperlink ref="A15" r:id="rId9"/>
-    <hyperlink ref="A16" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A19" r:id="rId13"/>
-    <hyperlink ref="A11" r:id="rId14"/>
-    <hyperlink ref="A10" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A6" r:id="rId17"/>
-    <hyperlink ref="A8" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A6" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4062,6 +4179,78 @@
       </c>
       <c r="B8" s="12" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4073,6 +4262,15 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4083,7 +4281,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\13 Jan\ChkIn2\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Final URLs" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$91</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="176">
   <si>
     <t>URL</t>
   </si>
@@ -511,9 +511,6 @@
     <t>9 locales test to start</t>
   </si>
   <si>
-    <t xml:space="preserve">48 Locales tested today with issues. </t>
-  </si>
-  <si>
     <t>48 locales testing in progress</t>
   </si>
   <si>
@@ -532,31 +529,31 @@
     <t>Web url</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>WEM URL not available</t>
-  </si>
-  <si>
-    <t>No need to work</t>
-  </si>
-  <si>
     <t>Not in scope/Redirected/No need to work</t>
   </si>
   <si>
-    <t>Rework Required</t>
-  </si>
-  <si>
-    <t>9 locale Re test is going on</t>
-  </si>
-  <si>
-    <t>48 locales testing done, with open issues</t>
-  </si>
-  <si>
     <t>9 locales test in progress</t>
   </si>
   <si>
-    <t>48 locales testing done with issues.</t>
+    <t>Web URLs testing status</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>48 locales tested with issues.</t>
+  </si>
+  <si>
+    <t>48 locales testing done</t>
+  </si>
+  <si>
+    <t>48 locales tested with issues</t>
+  </si>
+  <si>
+    <t>9 locales re-test to start</t>
+  </si>
+  <si>
+    <t>9 locales tested with issues</t>
   </si>
 </sst>
 </file>
@@ -597,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,12 +640,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,16 +736,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1063,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,24 +1101,24 @@
         <v>95</v>
       </c>
       <c r="B4" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D4" s="13">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E4" s="13">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28">
         <v>65</v>
       </c>
-      <c r="F4" s="28">
-        <v>51</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="32" t="s">
-        <v>166</v>
+      <c r="I6" s="31" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1140,10 +1131,10 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="I7" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="I7" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="31">
         <v>65</v>
       </c>
     </row>
@@ -1153,7 +1144,7 @@
         <v>156</v>
       </c>
       <c r="J8">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,7 +1153,7 @@
         <v>157</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,7 +1174,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1200,19 +1191,67 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="29"/>
       <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="J16" s="31">
         <f>SUM(J8:J14)</f>
         <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1235,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,8 +1408,8 @@
       <c r="G4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>161</v>
+      <c r="H4" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="14">
@@ -2383,7 +2422,7 @@
         <v>91</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="14">
@@ -2414,7 +2453,7 @@
         <v>91</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="14">
@@ -2445,7 +2484,7 @@
         <v>91</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="14">
@@ -2476,7 +2515,7 @@
         <v>91</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="14">
@@ -2507,7 +2546,7 @@
         <v>91</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="14">
@@ -2844,7 +2883,7 @@
         <v>91</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="14">
@@ -2875,7 +2914,7 @@
         <v>91</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="14">
@@ -2906,7 +2945,7 @@
         <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="14">
@@ -3029,7 +3068,7 @@
         <v>91</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="14">
@@ -3119,7 +3158,7 @@
         <v>91</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="14">
@@ -3149,7 +3188,7 @@
         <v>91</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="I62" s="23"/>
       <c r="J62" s="14">
@@ -3179,7 +3218,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="14">
@@ -3239,7 +3278,7 @@
         <v>91</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="14">
@@ -3344,7 +3383,7 @@
         <v>120</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" s="11">
         <v>9</v>
@@ -3357,6 +3396,9 @@
       </c>
       <c r="G69" s="11" t="s">
         <v>91</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3367,7 +3409,7 @@
         <v>128</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" s="11">
         <v>9</v>
@@ -3379,6 +3421,9 @@
         <v>91</v>
       </c>
       <c r="G70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3390,10 +3435,10 @@
         <v>129</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>91</v>
@@ -3402,6 +3447,9 @@
         <v>91</v>
       </c>
       <c r="G71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3413,10 +3461,10 @@
         <v>134</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>91</v>
@@ -3426,6 +3474,9 @@
       </c>
       <c r="G72" s="11" t="s">
         <v>91</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>91</v>
@@ -3448,6 +3499,9 @@
         <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3459,19 +3513,22 @@
         <v>131</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="11">
         <v>9</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3482,19 +3539,22 @@
         <v>140</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" s="11">
         <v>9</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3505,19 +3565,22 @@
         <v>145</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" s="11">
         <v>9</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3528,7 +3591,7 @@
         <v>143</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77" s="11">
         <v>9</v>
@@ -3541,6 +3604,9 @@
       </c>
       <c r="G77" s="11" t="s">
         <v>91</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3551,20 +3617,21 @@
         <v>122</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D78" s="11">
         <v>9</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
@@ -3574,19 +3641,22 @@
         <v>141</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79" s="11">
         <v>9</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3597,22 +3667,25 @@
         <v>142</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D80" s="11">
         <v>9</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>42016</v>
       </c>
@@ -3620,22 +3693,25 @@
         <v>144</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="11">
         <v>9</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>42016</v>
       </c>
@@ -3643,7 +3719,7 @@
         <v>123</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D82" s="11">
         <v>9</v>
@@ -3657,8 +3733,11 @@
       <c r="G82" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>42016</v>
       </c>
@@ -3666,7 +3745,7 @@
         <v>130</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" s="11">
         <v>15</v>
@@ -3680,8 +3759,11 @@
       <c r="G83" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>42017</v>
       </c>
@@ -3689,22 +3771,25 @@
         <v>126</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84" s="11">
         <v>9</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>42017</v>
       </c>
@@ -3712,22 +3797,25 @@
         <v>127</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D85" s="11">
         <v>9</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>42017</v>
       </c>
@@ -3735,7 +3823,7 @@
         <v>132</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D86" s="11">
         <v>9</v>
@@ -3749,8 +3837,11 @@
       <c r="G86" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>42017</v>
       </c>
@@ -3758,7 +3849,7 @@
         <v>136</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D87" s="11">
         <v>9</v>
@@ -3772,8 +3863,11 @@
       <c r="G87" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>42017</v>
       </c>
@@ -3781,23 +3875,98 @@
         <v>133</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D88" s="11">
         <v>9</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>42024</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="11">
+        <v>9</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>42024</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" s="11">
+        <v>9</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>42024</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="11">
+        <v>9</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H91" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M88"/>
+  <autoFilter ref="A1:M91"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -3883,17 +4052,20 @@
     <hyperlink ref="B59" r:id="rId82"/>
     <hyperlink ref="B58" r:id="rId83"/>
     <hyperlink ref="B71" r:id="rId84"/>
+    <hyperlink ref="B90" r:id="rId85"/>
+    <hyperlink ref="B89" r:id="rId86"/>
+    <hyperlink ref="B91" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3983,104 +4155,63 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>149</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4089,17 +4220,14 @@
     <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="A3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A12" r:id="rId7"/>
-    <hyperlink ref="A14" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A6" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="A6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4186,7 +4314,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,7 +4322,7 @@
         <v>140</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,7 +4330,7 @@
         <v>145</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4210,7 +4338,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4218,7 +4346,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4226,7 +4354,7 @@
         <v>142</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +4362,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4242,7 +4370,7 @@
         <v>133</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4250,7 +4378,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4280,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\29 Jan\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Final URLs" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$M$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="170">
   <si>
     <t>URL</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Additional Comments</t>
   </si>
   <si>
-    <t>Out of Scope</t>
-  </si>
-  <si>
     <t>Redirected page</t>
   </si>
   <si>
@@ -511,15 +508,9 @@
     <t>9 locales test to start</t>
   </si>
   <si>
-    <t>48 locales testing in progress</t>
-  </si>
-  <si>
     <t>Reports shared for test</t>
   </si>
   <si>
-    <t>9 locales re-test</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -535,25 +526,16 @@
     <t>9 locales test in progress</t>
   </si>
   <si>
-    <t>Web URLs testing status</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
-    <t>48 locales tested with issues.</t>
-  </si>
-  <si>
-    <t>48 locales testing done</t>
-  </si>
-  <si>
-    <t>48 locales tested with issues</t>
-  </si>
-  <si>
-    <t>9 locales re-test to start</t>
-  </si>
-  <si>
-    <t>9 locales tested with issues</t>
+    <t>Testing completed for 9 locales.</t>
+  </si>
+  <si>
+    <t>9 locales test done</t>
+  </si>
+  <si>
+    <t>Testing completed today for 9 locales with issues</t>
   </si>
 </sst>
 </file>
@@ -672,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -711,9 +693,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,7 +702,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +724,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,7 +1036,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,13 +1049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1090,10 +1071,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="27" t="s">
         <v>154</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,64 +1082,64 @@
         <v>95</v>
       </c>
       <c r="B4" s="13">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" s="13">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D4" s="13">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E4" s="13">
-        <v>84</v>
-      </c>
-      <c r="F4" s="28">
+        <v>88</v>
+      </c>
+      <c r="F4" s="26">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="31" t="s">
-        <v>165</v>
+      <c r="I6" s="29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="I7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7" s="31">
-        <v>65</v>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="I7" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="29">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1166,7 +1147,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1177,82 +1158,50 @@
         <v>168</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="29"/>
+      <c r="E14" s="27"/>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J16" s="31">
+      <c r="I16" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="29">
         <f>SUM(J8:J14)</f>
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
+      <c r="I23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1274,16 +1223,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="8" customWidth="1"/>
     <col min="5" max="7" width="17.140625" style="7" customWidth="1"/>
@@ -1328,7 +1277,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1349,15 +1298,15 @@
       <c r="H2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="14">
         <v>42374</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1378,19 +1327,19 @@
       <c r="H3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="14">
         <v>42374</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22"/>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1408,22 +1357,22 @@
       <c r="G4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="23"/>
+      <c r="H4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="34"/>
       <c r="J4" s="14">
         <v>42374</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="20"/>
       <c r="M4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1444,19 +1393,19 @@
       <c r="H5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="14">
         <v>42374</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="20"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="19"/>
       <c r="M5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1477,7 +1426,7 @@
       <c r="H6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="14">
         <v>42341</v>
       </c>
@@ -1488,7 +1437,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1509,7 +1458,7 @@
       <c r="H7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="14">
         <v>42341</v>
       </c>
@@ -1520,7 +1469,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1541,7 +1490,7 @@
       <c r="H8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="14">
         <v>42341</v>
       </c>
@@ -1552,7 +1501,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1573,14 +1522,14 @@
       <c r="H9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="14">
         <v>42341</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1601,14 +1550,14 @@
       <c r="H10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="14">
         <v>42341</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1629,7 +1578,7 @@
       <c r="H11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="14">
         <v>42341</v>
       </c>
@@ -1639,7 +1588,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1660,7 +1609,7 @@
       <c r="H12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="14">
         <v>42341</v>
       </c>
@@ -1670,7 +1619,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1691,7 +1640,7 @@
       <c r="H13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="14">
         <v>42341</v>
       </c>
@@ -1701,7 +1650,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1722,7 +1671,7 @@
       <c r="H14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="14">
         <v>42341</v>
       </c>
@@ -1732,7 +1681,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1753,7 +1702,7 @@
       <c r="H15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="14">
         <v>42341</v>
       </c>
@@ -1763,7 +1712,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1784,7 +1733,7 @@
       <c r="H16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="14">
         <v>42341</v>
       </c>
@@ -1794,7 +1743,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1815,7 +1764,7 @@
       <c r="H17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="14">
         <v>42341</v>
       </c>
@@ -1827,7 +1776,7 @@
       <c r="A18" s="14">
         <v>42341</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1848,7 +1797,7 @@
       <c r="H18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="14">
         <v>42341</v>
       </c>
@@ -1860,7 +1809,7 @@
       <c r="A19" s="14">
         <v>42345</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1881,7 +1830,7 @@
       <c r="H19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="14">
         <v>42349</v>
       </c>
@@ -1893,7 +1842,7 @@
       <c r="A20" s="14">
         <v>42345</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -1914,7 +1863,7 @@
       <c r="H20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="14">
         <v>42349</v>
       </c>
@@ -1926,7 +1875,7 @@
       <c r="A21" s="14">
         <v>42345</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -1947,7 +1896,7 @@
       <c r="H21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="14">
         <v>42349</v>
       </c>
@@ -1956,7 +1905,7 @@
       <c r="A22" s="14">
         <v>42345</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -1977,7 +1926,7 @@
       <c r="H22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="14">
         <v>42349</v>
       </c>
@@ -1986,7 +1935,7 @@
       <c r="A23" s="14">
         <v>42345</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -2007,7 +1956,7 @@
       <c r="H23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="14">
         <v>42353</v>
       </c>
@@ -2016,7 +1965,7 @@
       <c r="A24" s="14">
         <v>42345</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2037,7 +1986,7 @@
       <c r="H24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="14">
         <v>42353</v>
       </c>
@@ -2046,7 +1995,7 @@
       <c r="A25" s="14">
         <v>42345</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -2067,7 +2016,7 @@
       <c r="H25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="14">
         <v>42353</v>
       </c>
@@ -2076,7 +2025,7 @@
       <c r="A26" s="14">
         <v>42345</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -2097,7 +2046,7 @@
       <c r="H26" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="14">
         <v>42353</v>
       </c>
@@ -2106,7 +2055,7 @@
       <c r="A27" s="14">
         <v>42347</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -2127,7 +2076,7 @@
       <c r="H27" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="14">
         <v>42353</v>
       </c>
@@ -2136,7 +2085,7 @@
       <c r="A28" s="14">
         <v>42347</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -2157,7 +2106,7 @@
       <c r="H28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="14">
         <v>42353</v>
       </c>
@@ -2166,7 +2115,7 @@
       <c r="A29" s="14">
         <v>42347</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2187,7 +2136,7 @@
       <c r="H29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="14">
         <v>42353</v>
       </c>
@@ -2196,7 +2145,7 @@
       <c r="A30" s="14">
         <v>42347</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -2217,7 +2166,7 @@
       <c r="H30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="14">
         <v>42353</v>
       </c>
@@ -2226,7 +2175,7 @@
       <c r="A31" s="14">
         <v>42352</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -2247,7 +2196,7 @@
       <c r="H31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="14">
         <v>42360</v>
       </c>
@@ -2256,7 +2205,7 @@
       <c r="A32" s="14">
         <v>42352</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2277,7 +2226,7 @@
       <c r="H32" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="14">
         <v>42360</v>
       </c>
@@ -2286,7 +2235,7 @@
       <c r="A33" s="14">
         <v>42352</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -2307,7 +2256,7 @@
       <c r="H33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="14">
         <v>42360</v>
       </c>
@@ -2316,7 +2265,7 @@
       <c r="A34" s="14">
         <v>42352</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -2337,7 +2286,7 @@
       <c r="H34" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="14">
         <v>42360</v>
       </c>
@@ -2346,7 +2295,7 @@
       <c r="A35" s="14">
         <v>42352</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -2367,7 +2316,7 @@
       <c r="H35" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="14">
         <v>42360</v>
       </c>
@@ -2376,7 +2325,7 @@
       <c r="A36" s="14">
         <v>42356</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2392,24 +2341,26 @@
         <v>91</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="23"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="26"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>42356</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="28">
         <v>9</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -2422,25 +2373,25 @@
         <v>91</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="I37" s="23"/>
       <c r="J37" s="14">
         <v>42375</v>
       </c>
-      <c r="K37" s="26"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>42359</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="28">
         <v>9</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -2453,25 +2404,25 @@
         <v>91</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="I38" s="23"/>
       <c r="J38" s="14">
         <v>42375</v>
       </c>
-      <c r="K38" s="26"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>42359</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="28">
         <v>9</v>
       </c>
       <c r="E39" s="11" t="s">
@@ -2484,25 +2435,25 @@
         <v>91</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="14">
         <v>42375</v>
       </c>
-      <c r="K39" s="26"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>42359</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="28">
         <v>9</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -2515,25 +2466,25 @@
         <v>91</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="I40" s="23"/>
       <c r="J40" s="14">
         <v>42375</v>
       </c>
-      <c r="K40" s="26"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>42359</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="28">
         <v>9</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -2546,19 +2497,19 @@
         <v>91</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="I41" s="23"/>
       <c r="J41" s="14">
         <v>42375</v>
       </c>
-      <c r="K41" s="26"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>42359</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -2579,17 +2530,17 @@
       <c r="H42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="24"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="14">
         <v>42375</v>
       </c>
-      <c r="K42" s="26"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42359</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -2610,17 +2561,17 @@
       <c r="H43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="24"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="14">
         <v>42375</v>
       </c>
-      <c r="K43" s="26"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>42359</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -2641,17 +2592,17 @@
       <c r="H44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="24"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="14">
         <v>42375</v>
       </c>
-      <c r="K44" s="26"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>42359</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -2672,17 +2623,17 @@
       <c r="H45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="14">
         <v>42375</v>
       </c>
-      <c r="K45" s="26"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>42359</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -2703,17 +2654,17 @@
       <c r="H46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="24"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="14">
         <v>42375</v>
       </c>
-      <c r="K46" s="26"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>42359</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -2734,17 +2685,17 @@
       <c r="H47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="24"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="14">
         <v>42375</v>
       </c>
-      <c r="K47" s="26"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>42359</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -2765,17 +2716,17 @@
       <c r="H48" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="24"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="14">
         <v>42375</v>
       </c>
-      <c r="K48" s="26"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>42359</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -2796,17 +2747,17 @@
       <c r="H49" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="24"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="14">
         <v>42375</v>
       </c>
-      <c r="K49" s="26"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>42359</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -2827,17 +2778,17 @@
       <c r="H50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="24"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="14">
         <v>42375</v>
       </c>
-      <c r="K50" s="26"/>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>42366</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -2853,18 +2804,20 @@
         <v>91</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="34"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="26"/>
+      <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>42367</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -2885,17 +2838,17 @@
       <c r="H52" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I52" s="24"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="14">
         <v>42375</v>
       </c>
-      <c r="K52" s="26"/>
+      <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>42367</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -2916,17 +2869,17 @@
       <c r="H53" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="14">
         <v>42375</v>
       </c>
-      <c r="K53" s="26"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>42368</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -2947,17 +2900,17 @@
       <c r="H54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="24"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="14">
         <v>42375</v>
       </c>
-      <c r="K54" s="26"/>
+      <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>42367</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -2978,17 +2931,17 @@
       <c r="H55" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I55" s="24"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="14">
         <v>42375</v>
       </c>
-      <c r="K55" s="26"/>
+      <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>42367</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -3009,17 +2962,17 @@
       <c r="H56" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="24"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="14">
         <v>42375</v>
       </c>
-      <c r="K56" s="26"/>
+      <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>42009</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -3040,7 +2993,7 @@
       <c r="H57" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="24"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="14">
         <v>42377</v>
       </c>
@@ -3049,13 +3002,13 @@
       <c r="A58" s="14">
         <v>42009</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="28">
         <v>48</v>
       </c>
       <c r="E58" s="11" t="s">
@@ -3070,7 +3023,7 @@
       <c r="H58" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="14">
         <v>42377</v>
       </c>
@@ -3079,7 +3032,7 @@
       <c r="A59" s="14">
         <v>42009</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -3100,7 +3053,7 @@
       <c r="H59" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I59" s="24"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="14">
         <v>42377</v>
       </c>
@@ -3109,13 +3062,13 @@
       <c r="A60" s="14">
         <v>42009</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="28">
         <v>48</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -3130,7 +3083,7 @@
       <c r="H60" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="24"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="14">
         <v>42377</v>
       </c>
@@ -3139,7 +3092,7 @@
       <c r="A61" s="14">
         <v>42009</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -3169,7 +3122,7 @@
       <c r="A62" s="14">
         <v>42009</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -3190,7 +3143,7 @@
       <c r="H62" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I62" s="23"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="14">
         <v>42380</v>
       </c>
@@ -3199,13 +3152,13 @@
       <c r="A63" s="14">
         <v>42009</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="28">
         <v>48</v>
       </c>
       <c r="E63" s="11" t="s">
@@ -3220,7 +3173,7 @@
       <c r="H63" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="14">
         <v>42377</v>
       </c>
@@ -3229,7 +3182,7 @@
       <c r="A64" s="14">
         <v>42009</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="12" t="s">
@@ -3250,7 +3203,7 @@
       <c r="H64" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="14">
         <v>42377</v>
       </c>
@@ -3259,11 +3212,11 @@
       <c r="A65" s="14">
         <v>42009</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D65" s="11">
         <v>48</v>
@@ -3280,7 +3233,7 @@
       <c r="H65" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="14">
         <v>42377</v>
       </c>
@@ -3289,11 +3242,11 @@
       <c r="A66" s="14">
         <v>42009</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>125</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66" s="11">
         <v>48</v>
@@ -3310,7 +3263,7 @@
       <c r="H66" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I66" s="23"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="14">
         <v>42380</v>
       </c>
@@ -3319,7 +3272,7 @@
       <c r="A67" s="14">
         <v>42011</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -3340,7 +3293,7 @@
       <c r="H67" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I67" s="25"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="14">
         <v>42382</v>
       </c>
@@ -3349,7 +3302,7 @@
       <c r="A68" s="14">
         <v>42011</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -3370,7 +3323,7 @@
       <c r="H68" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I68" s="25"/>
+      <c r="I68" s="23"/>
       <c r="J68" s="14">
         <v>42382</v>
       </c>
@@ -3379,11 +3332,11 @@
       <c r="A69" s="14">
         <v>42015</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D69" s="11">
         <v>9</v>
@@ -3398,18 +3351,20 @@
         <v>91</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>161</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>42015</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D70" s="11">
         <v>9</v>
@@ -3424,21 +3379,23 @@
         <v>91</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>42015</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D71" s="11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>91</v>
@@ -3450,21 +3407,23 @@
         <v>91</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>42015</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="21" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D72" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>91</v>
@@ -3476,21 +3435,23 @@
         <v>91</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>171</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>42015</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D73" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>91</v>
@@ -3502,18 +3463,20 @@
         <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>42015</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>131</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D74" s="11">
         <v>9</v>
@@ -3528,18 +3491,20 @@
         <v>91</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>42015</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>140</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D75" s="11">
         <v>9</v>
@@ -3554,18 +3519,20 @@
         <v>91</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>161</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>42015</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D76" s="11">
         <v>9</v>
@@ -3580,18 +3547,20 @@
         <v>91</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>161</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>42015</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>143</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D77" s="11">
         <v>9</v>
@@ -3606,42 +3575,48 @@
         <v>91</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>171</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>42015</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D78" s="11">
         <v>9</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H78" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>42016</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>141</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D79" s="11">
         <v>9</v>
@@ -3656,18 +3631,20 @@
         <v>91</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>161</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>42016</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="21" t="s">
         <v>142</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D80" s="11">
         <v>9</v>
@@ -3682,18 +3659,20 @@
         <v>91</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>42016</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>144</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D81" s="11">
         <v>9</v>
@@ -3708,18 +3687,20 @@
         <v>91</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>42016</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D82" s="11">
         <v>9</v>
@@ -3734,21 +3715,23 @@
         <v>91</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>42016</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D83" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>91</v>
@@ -3760,18 +3743,20 @@
         <v>91</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>42017</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D84" s="11">
         <v>9</v>
@@ -3786,18 +3771,20 @@
         <v>91</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>42017</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D85" s="11">
         <v>9</v>
@@ -3812,18 +3799,20 @@
         <v>91</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>42017</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D86" s="11">
         <v>9</v>
@@ -3838,18 +3827,20 @@
         <v>91</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>42017</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D87" s="11">
         <v>9</v>
@@ -3864,18 +3855,20 @@
         <v>91</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>42017</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>133</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D88" s="11">
         <v>9</v>
@@ -3890,14 +3883,16 @@
         <v>91</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>42024</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -3916,16 +3911,18 @@
         <v>91</v>
       </c>
       <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>42024</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D90" s="11">
         <v>9</v>
@@ -3940,33 +3937,95 @@
         <v>110</v>
       </c>
       <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>42024</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>138</v>
+        <v>42029</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D91" s="11">
         <v>9</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H91" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>42029</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="11">
+        <v>9</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>42029</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="11">
+        <v>9</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M91"/>
+  <autoFilter ref="A1:M93"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -4055,19 +4114,19 @@
     <hyperlink ref="B90" r:id="rId85"/>
     <hyperlink ref="B89" r:id="rId86"/>
     <hyperlink ref="B91" r:id="rId87"/>
+    <hyperlink ref="B92" r:id="rId88"/>
+    <hyperlink ref="B93" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4088,146 +4147,119 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>12</v>
+      <c r="A2" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>89</v>
+      <c r="A3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>69</v>
+      <c r="A4" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>14</v>
+      <c r="A5" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>149</v>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="5"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A7" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A10" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A6" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4246,7 +4278,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -4254,7 +4286,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4262,7 +4294,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -4270,7 +4302,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -4278,7 +4310,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -4286,7 +4318,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -4294,7 +4326,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -4302,7 +4334,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -4310,75 +4342,75 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4419,7 +4451,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4427,7 +4459,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4435,7 +4467,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -4443,7 +4475,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -4451,7 +4483,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4459,7 +4491,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4467,7 +4499,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4475,7 +4507,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4483,7 +4515,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4491,7 +4523,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -4499,7 +4531,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4507,7 +4539,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4515,7 +4547,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4523,7 +4555,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -4531,7 +4563,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -4539,7 +4571,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -4547,7 +4579,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -4555,7 +4587,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -4563,7 +4595,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -4571,7 +4603,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -4579,7 +4611,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -4587,7 +4619,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -4595,7 +4627,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -4603,7 +4635,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -4611,7 +4643,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -4619,7 +4651,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -4627,7 +4659,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -4635,7 +4667,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -4643,7 +4675,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -4651,7 +4683,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -4659,7 +4691,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -4667,7 +4699,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -4675,7 +4707,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -4683,7 +4715,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -4691,7 +4723,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -4699,7 +4731,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -4707,7 +4739,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -4715,7 +4747,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -4723,7 +4755,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -4731,7 +4763,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -4739,7 +4771,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4747,7 +4779,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -4755,7 +4787,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -4763,7 +4795,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -4771,7 +4803,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -4779,7 +4811,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -4787,7 +4819,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -4795,7 +4827,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -4803,7 +4835,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -4811,7 +4843,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -4819,7 +4851,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -4827,7 +4859,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -4835,7 +4867,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -4843,7 +4875,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -4851,7 +4883,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -4859,7 +4891,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -4867,7 +4899,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -4875,7 +4907,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -4883,7 +4915,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -4891,7 +4923,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -4899,7 +4931,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -4907,7 +4939,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -4915,7 +4947,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -4923,7 +4955,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -4931,7 +4963,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -4939,7 +4971,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -4947,7 +4979,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -4955,7 +4987,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -4963,7 +4995,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -4971,7 +5003,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -4979,7 +5011,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -4987,7 +5019,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -4995,169 +5027,169 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="11"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B74" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="21" t="s">
         <v>125</v>
       </c>
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B82" s="11"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B83" s="11"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="21" t="s">
         <v>129</v>
       </c>
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B88" s="11"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B89" s="11"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B90" s="11"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B93" s="11"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B95" s="11"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B96" s="11"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B97" s="11"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B100" s="11"/>

--- a/docs/Daily Status Tracker.xlsx
+++ b/docs/Daily Status Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\29 Jan\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Daily Checkout\29 Jan 2\OVWMigration\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="170">
   <si>
     <t>URL</t>
   </si>
@@ -358,9 +358,6 @@
     <t xml:space="preserve">The above number refer to the activities which are completed. Please go to next tab to check on the activities in progress. </t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Product-Listing</t>
   </si>
   <si>
@@ -529,13 +526,16 @@
     <t>Support</t>
   </si>
   <si>
-    <t>Testing completed for 9 locales.</t>
-  </si>
-  <si>
     <t>9 locales test done</t>
   </si>
   <si>
-    <t>Testing completed today for 9 locales with issues</t>
+    <t>404 Error, followed by redirection</t>
+  </si>
+  <si>
+    <t>Testing in progress for 48 locales.</t>
+  </si>
+  <si>
+    <t>Testing in progress for 9 locales.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -719,14 +719,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1036,7 +1037,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,13 +1050,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1071,10 +1072,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,32 +1089,32 @@
         <v>92</v>
       </c>
       <c r="D4" s="13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="13">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="26">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="I7" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="29">
         <v>91</v>
@@ -1122,24 +1123,24 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1147,7 +1148,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1155,32 +1156,32 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="27"/>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J16" s="29">
         <f>SUM(J8:J14)</f>
@@ -1225,9 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1298,7 +1297,7 @@
       <c r="H2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14">
         <v>42374</v>
       </c>
@@ -1327,14 +1326,14 @@
       <c r="H3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="14">
         <v>42374</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="22"/>
       <c r="M3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1360,14 +1359,14 @@
       <c r="H4" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="14">
         <v>42374</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="20"/>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1393,7 +1392,7 @@
       <c r="H5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="14">
         <v>42374</v>
       </c>
@@ -1426,7 +1425,7 @@
       <c r="H6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="14">
         <v>42341</v>
       </c>
@@ -1458,7 +1457,7 @@
       <c r="H7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="14">
         <v>42341</v>
       </c>
@@ -1490,7 +1489,7 @@
       <c r="H8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="14">
         <v>42341</v>
       </c>
@@ -1522,7 +1521,7 @@
       <c r="H9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="14">
         <v>42341</v>
       </c>
@@ -1550,7 +1549,7 @@
       <c r="H10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="14">
         <v>42341</v>
       </c>
@@ -1578,7 +1577,7 @@
       <c r="H11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="14">
         <v>42341</v>
       </c>
@@ -1609,7 +1608,7 @@
       <c r="H12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="14">
         <v>42341</v>
       </c>
@@ -1640,7 +1639,7 @@
       <c r="H13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="14">
         <v>42341</v>
       </c>
@@ -1671,7 +1670,7 @@
       <c r="H14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="14">
         <v>42341</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="H15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="14">
         <v>42341</v>
       </c>
@@ -1711,7 +1710,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14">
+        <v>42402</v>
+      </c>
       <c r="B16" s="21" t="s">
         <v>52</v>
       </c>
@@ -1731,9 +1732,9 @@
         <v>91</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="34"/>
+        <v>169</v>
+      </c>
+      <c r="I16" s="32"/>
       <c r="J16" s="14">
         <v>42341</v>
       </c>
@@ -1764,7 +1765,7 @@
       <c r="H17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="14">
         <v>42341</v>
       </c>
@@ -1797,7 +1798,7 @@
       <c r="H18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="14">
         <v>42341</v>
       </c>
@@ -1830,7 +1831,7 @@
       <c r="H19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="14">
         <v>42349</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="H20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="14">
         <v>42349</v>
       </c>
@@ -1896,7 +1897,7 @@
       <c r="H21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="34"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="14">
         <v>42349</v>
       </c>
@@ -1926,7 +1927,7 @@
       <c r="H22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="14">
         <v>42349</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="11">
         <v>48</v>
@@ -1956,7 +1957,7 @@
       <c r="H23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="14">
         <v>42353</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="11">
         <v>48</v>
@@ -1986,7 +1987,7 @@
       <c r="H24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="14">
         <v>42353</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="11">
         <v>48</v>
@@ -2016,7 +2017,7 @@
       <c r="H25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="14">
         <v>42353</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="11">
         <v>48</v>
@@ -2046,7 +2047,7 @@
       <c r="H26" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="14">
         <v>42353</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="11">
         <v>48</v>
@@ -2076,7 +2077,7 @@
       <c r="H27" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="14">
         <v>42353</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="11">
         <v>48</v>
@@ -2106,7 +2107,7 @@
       <c r="H28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="14">
         <v>42353</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="11">
         <v>48</v>
@@ -2136,7 +2137,7 @@
       <c r="H29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="14">
         <v>42353</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>78</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="11">
         <v>48</v>
@@ -2166,7 +2167,7 @@
       <c r="H30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="34"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="14">
         <v>42353</v>
       </c>
@@ -2256,7 +2257,7 @@
       <c r="H33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="14">
         <v>42360</v>
       </c>
@@ -2286,7 +2287,7 @@
       <c r="H34" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="14">
         <v>42360</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>85</v>
       </c>
       <c r="D36" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>91</v>
@@ -2344,7 +2345,7 @@
         <v>91</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="14"/>
@@ -2360,8 +2361,8 @@
       <c r="C37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="28">
-        <v>9</v>
+      <c r="D37" s="11">
+        <v>48</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>91</v>
@@ -2391,8 +2392,8 @@
       <c r="C38" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="28">
-        <v>9</v>
+      <c r="D38" s="11">
+        <v>48</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>91</v>
@@ -2422,8 +2423,8 @@
       <c r="C39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="28">
-        <v>9</v>
+      <c r="D39" s="11">
+        <v>48</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>91</v>
@@ -2453,8 +2454,8 @@
       <c r="C40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="28">
-        <v>9</v>
+      <c r="D40" s="11">
+        <v>48</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>91</v>
@@ -2484,8 +2485,8 @@
       <c r="C41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="28">
-        <v>9</v>
+      <c r="D41" s="11">
+        <v>48</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>91</v>
@@ -2513,7 +2514,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="11">
         <v>48</v>
@@ -2544,7 +2545,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="11">
         <v>48</v>
@@ -2575,7 +2576,7 @@
         <v>75</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="11">
         <v>48</v>
@@ -2606,7 +2607,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="11">
         <v>48</v>
@@ -2637,7 +2638,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="11">
         <v>48</v>
@@ -2668,7 +2669,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="11">
         <v>48</v>
@@ -2699,7 +2700,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="11">
         <v>48</v>
@@ -2730,7 +2731,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="11">
         <v>48</v>
@@ -2761,7 +2762,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="11">
         <v>48</v>
@@ -2795,7 +2796,7 @@
         <v>85</v>
       </c>
       <c r="D51" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>91</v>
@@ -2807,9 +2808,9 @@
         <v>91</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I51" s="34"/>
+        <v>149</v>
+      </c>
+      <c r="I51" s="32"/>
       <c r="J51" s="11"/>
       <c r="K51" s="24"/>
     </row>
@@ -2821,7 +2822,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="11">
         <v>48</v>
@@ -2852,7 +2853,7 @@
         <v>74</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="11">
         <v>48</v>
@@ -2883,7 +2884,7 @@
         <v>79</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="11">
         <v>48</v>
@@ -2914,7 +2915,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" s="11">
         <v>48</v>
@@ -2945,7 +2946,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" s="11">
         <v>48</v>
@@ -2976,7 +2977,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="11">
         <v>48</v>
@@ -3036,7 +3037,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="11">
         <v>48</v>
@@ -3066,7 +3067,7 @@
         <v>41</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" s="28">
         <v>48</v>
@@ -3096,7 +3097,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" s="11">
         <v>48</v>
@@ -3126,7 +3127,7 @@
         <v>71</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="11">
         <v>48</v>
@@ -3186,7 +3187,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" s="11">
         <v>48</v>
@@ -3213,10 +3214,10 @@
         <v>42009</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="11">
         <v>48</v>
@@ -3243,10 +3244,10 @@
         <v>42009</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" s="11">
         <v>48</v>
@@ -3279,7 +3280,7 @@
         <v>88</v>
       </c>
       <c r="D67" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>91</v>
@@ -3309,7 +3310,7 @@
         <v>88</v>
       </c>
       <c r="D68" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>91</v>
@@ -3333,13 +3334,13 @@
         <v>42015</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>91</v>
@@ -3351,7 +3352,7 @@
         <v>91</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
@@ -3361,13 +3362,13 @@
         <v>42015</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>91</v>
@@ -3379,7 +3380,7 @@
         <v>91</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
@@ -3389,13 +3390,13 @@
         <v>42015</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>91</v>
@@ -3407,7 +3408,7 @@
         <v>91</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
@@ -3417,13 +3418,13 @@
         <v>42015</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>91</v>
@@ -3435,7 +3436,7 @@
         <v>91</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
@@ -3445,13 +3446,13 @@
         <v>42015</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>91</v>
@@ -3463,7 +3464,7 @@
         <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
@@ -3473,13 +3474,13 @@
         <v>42015</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>91</v>
@@ -3491,7 +3492,7 @@
         <v>91</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
@@ -3501,13 +3502,13 @@
         <v>42015</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>91</v>
@@ -3519,7 +3520,7 @@
         <v>91</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
@@ -3529,13 +3530,13 @@
         <v>42015</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>91</v>
@@ -3547,7 +3548,7 @@
         <v>91</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
@@ -3557,13 +3558,13 @@
         <v>42015</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>91</v>
@@ -3575,7 +3576,7 @@
         <v>91</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
@@ -3585,13 +3586,13 @@
         <v>42015</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>91</v>
@@ -3603,7 +3604,7 @@
         <v>91</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
@@ -3613,13 +3614,13 @@
         <v>42016</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>91</v>
@@ -3631,7 +3632,7 @@
         <v>91</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I79" s="23"/>
       <c r="J79" s="23"/>
@@ -3641,13 +3642,13 @@
         <v>42016</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>91</v>
@@ -3659,7 +3660,7 @@
         <v>91</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I80" s="23"/>
       <c r="J80" s="23"/>
@@ -3669,13 +3670,13 @@
         <v>42016</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>91</v>
@@ -3687,7 +3688,7 @@
         <v>91</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
@@ -3697,13 +3698,13 @@
         <v>42016</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D82" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>91</v>
@@ -3715,7 +3716,7 @@
         <v>91</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
@@ -3725,13 +3726,13 @@
         <v>42016</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>91</v>
@@ -3743,7 +3744,7 @@
         <v>91</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
@@ -3753,13 +3754,13 @@
         <v>42017</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>91</v>
@@ -3771,7 +3772,7 @@
         <v>91</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
@@ -3781,13 +3782,13 @@
         <v>42017</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>91</v>
@@ -3799,7 +3800,7 @@
         <v>91</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I85" s="23"/>
       <c r="J85" s="23"/>
@@ -3809,13 +3810,13 @@
         <v>42017</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>91</v>
@@ -3827,7 +3828,7 @@
         <v>91</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -3837,13 +3838,13 @@
         <v>42017</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>91</v>
@@ -3855,7 +3856,7 @@
         <v>91</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I87" s="23"/>
       <c r="J87" s="23"/>
@@ -3865,13 +3866,13 @@
         <v>42017</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>91</v>
@@ -3883,7 +3884,7 @@
         <v>91</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
@@ -3910,7 +3911,7 @@
       <c r="G89" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H89" s="10"/>
+      <c r="H89" s="11"/>
       <c r="I89" s="23"/>
       <c r="J89" s="23"/>
     </row>
@@ -3919,24 +3920,26 @@
         <v>42024</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="11">
         <v>9</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H90" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
@@ -3951,7 +3954,7 @@
         <v>82</v>
       </c>
       <c r="D91" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>91</v>
@@ -3963,7 +3966,7 @@
         <v>91</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
@@ -3979,7 +3982,7 @@
         <v>89</v>
       </c>
       <c r="D92" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>91</v>
@@ -3991,7 +3994,7 @@
         <v>91</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="I92" s="23"/>
       <c r="J92" s="23"/>
@@ -4004,10 +4007,10 @@
         <v>69</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D93" s="11">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>91</v>
@@ -4019,7 +4022,7 @@
         <v>91</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="I93" s="23"/>
       <c r="J93" s="23"/>
@@ -4124,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4132,7 +4135,8 @@
   <cols>
     <col min="1" max="1" width="88.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,7 +4147,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,10 +4155,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4162,10 +4166,10 @@
         <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,66 +4177,66 @@
         <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -4240,7 +4244,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -4249,6 +4253,9 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="5"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4267,9 +4274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4282,7 +4287,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4298,7 +4303,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4306,7 +4311,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4314,7 +4319,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4322,7 +4327,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4338,79 +4343,79 @@
         <v>60</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4440,9 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4463,7 +4466,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4474,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4519,7 +4522,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4527,7 +4530,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4535,7 +4538,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,7 +4546,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4551,7 +4554,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4559,7 +4562,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4567,7 +4570,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +4698,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4735,7 +4738,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,7 +4770,7 @@
         <v>63</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4775,7 +4778,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4786,7 @@
         <v>65</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4791,7 +4794,7 @@
         <v>73</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4799,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4807,7 +4810,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4815,7 +4818,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4823,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4831,7 +4834,7 @@
         <v>77</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4839,7 +4842,7 @@
         <v>78</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4871,7 +4874,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4951,7 +4954,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4959,7 +4962,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4967,7 +4970,7 @@
         <v>75</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4975,7 +4978,7 @@
         <v>39</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4983,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4991,7 +4994,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +5002,7 @@
         <v>47</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5007,7 +5010,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,7 +5018,7 @@
         <v>51</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5023,174 +5026,174 @@
         <v>61</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="11"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="11"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" s="11"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="11"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="11"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="11"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="11"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" s="11"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="11"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B97" s="11"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" s="11"/>
     </row>
